--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobol\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290A43F3-CF08-4577-B416-BA404D2C3164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A240E09-F980-4034-94A4-C1AC458346D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="19245" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Blast Furnace Starting R" sheetId="1" r:id="rId1"/>
@@ -95,16 +95,16 @@
     <t>Source</t>
   </si>
   <si>
-    <t>According to the Press Finishing</t>
-  </si>
-  <si>
     <t>Update</t>
   </si>
   <si>
-    <t>2018-03-02:2023-07-07</t>
+    <t>2018-03-02:2023-11-10</t>
   </si>
   <si>
-    <t>2023-07-07</t>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
   </si>
 </sst>
 </file>
@@ -505,19 +505,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C284"/>
+  <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>error!</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -569,10 +570,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,15 +581,15 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>15</v>
@@ -602,10 +603,10 @@
         <v>43161</v>
       </c>
       <c r="B9" s="2">
-        <v>75.489999999999995</v>
+        <v>75.47</v>
       </c>
       <c r="C9" s="2">
-        <v>74.58</v>
+        <v>74.56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +614,10 @@
         <v>43168</v>
       </c>
       <c r="B10" s="2">
-        <v>75.150000000000006</v>
+        <v>75.13</v>
       </c>
       <c r="C10" s="2">
-        <v>74.95</v>
+        <v>74.97</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,10 +625,10 @@
         <v>43175</v>
       </c>
       <c r="B11" s="2">
-        <v>75.260000000000005</v>
+        <v>75.27</v>
       </c>
       <c r="C11" s="2">
-        <v>74.53</v>
+        <v>74.510000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,10 +636,10 @@
         <v>43182</v>
       </c>
       <c r="B12" s="2">
-        <v>76.31</v>
+        <v>76.33</v>
       </c>
       <c r="C12" s="2">
-        <v>74.86</v>
+        <v>74.88</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +647,10 @@
         <v>43189</v>
       </c>
       <c r="B13" s="2">
-        <v>77.930000000000007</v>
+        <v>77.95</v>
       </c>
       <c r="C13" s="2">
-        <v>75.75</v>
+        <v>75.77</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +658,10 @@
         <v>43199</v>
       </c>
       <c r="B14" s="2">
-        <v>78.510000000000005</v>
+        <v>78.53</v>
       </c>
       <c r="C14" s="2">
-        <v>76.78</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,10 +669,10 @@
         <v>43203</v>
       </c>
       <c r="B15" s="2">
-        <v>79.67</v>
+        <v>79.69</v>
       </c>
       <c r="C15" s="2">
-        <v>77.92</v>
+        <v>77.94</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,10 +680,10 @@
         <v>43210</v>
       </c>
       <c r="B16" s="2">
-        <v>78.86</v>
+        <v>78.84</v>
       </c>
       <c r="C16" s="2">
-        <v>78.25</v>
+        <v>78.27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,10 +691,10 @@
         <v>43217</v>
       </c>
       <c r="B17" s="2">
-        <v>78.510000000000005</v>
+        <v>78.489999999999995</v>
       </c>
       <c r="C17" s="2">
-        <v>77.400000000000006</v>
+        <v>77.38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,10 +702,10 @@
         <v>43224</v>
       </c>
       <c r="B18" s="2">
-        <v>79.33</v>
+        <v>79.349999999999994</v>
       </c>
       <c r="C18" s="2">
-        <v>77.790000000000006</v>
+        <v>77.81</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,10 +713,10 @@
         <v>43231</v>
       </c>
       <c r="B19" s="2">
-        <v>80.489999999999995</v>
+        <v>80.510000000000005</v>
       </c>
       <c r="C19" s="2">
-        <v>79.12</v>
+        <v>79.14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -723,10 +724,10 @@
         <v>43238</v>
       </c>
       <c r="B20" s="2">
-        <v>81.53</v>
+        <v>81.55</v>
       </c>
       <c r="C20" s="2">
-        <v>80.400000000000006</v>
+        <v>80.42</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -734,10 +735,10 @@
         <v>43245</v>
       </c>
       <c r="B21" s="2">
-        <v>83.39</v>
+        <v>83.41</v>
       </c>
       <c r="C21" s="2">
-        <v>81.489999999999995</v>
+        <v>81.510000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -745,10 +746,10 @@
         <v>43252</v>
       </c>
       <c r="B22" s="2">
-        <v>83.62</v>
+        <v>83.63</v>
       </c>
       <c r="C22" s="2">
-        <v>81.63</v>
+        <v>81.64</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -756,7 +757,7 @@
         <v>43259</v>
       </c>
       <c r="B23" s="2">
-        <v>83.28</v>
+        <v>83.26</v>
       </c>
       <c r="C23" s="2">
         <v>81.61</v>
@@ -767,10 +768,10 @@
         <v>43266</v>
       </c>
       <c r="B24" s="2">
-        <v>83.28</v>
+        <v>83.26</v>
       </c>
       <c r="C24" s="2">
-        <v>81.319999999999993</v>
+        <v>81.31</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -778,7 +779,7 @@
         <v>43273</v>
       </c>
       <c r="B25" s="2">
-        <v>83.16</v>
+        <v>83.15</v>
       </c>
       <c r="C25" s="2">
         <v>81.290000000000006</v>
@@ -789,10 +790,10 @@
         <v>43280</v>
       </c>
       <c r="B26" s="2">
-        <v>82.58</v>
+        <v>82.56</v>
       </c>
       <c r="C26" s="2">
-        <v>81.099999999999994</v>
+        <v>81.09</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -800,10 +801,10 @@
         <v>43287</v>
       </c>
       <c r="B27" s="2">
-        <v>83.28</v>
+        <v>83.3</v>
       </c>
       <c r="C27" s="2">
-        <v>81.430000000000007</v>
+        <v>81.45</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -811,7 +812,7 @@
         <v>43294</v>
       </c>
       <c r="B28" s="2">
-        <v>82.93</v>
+        <v>82.91</v>
       </c>
       <c r="C28" s="2">
         <v>81.52</v>
@@ -822,10 +823,10 @@
         <v>43301</v>
       </c>
       <c r="B29" s="2">
-        <v>83.16</v>
+        <v>83.17</v>
       </c>
       <c r="C29" s="2">
-        <v>81.66</v>
+        <v>81.67</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -833,10 +834,10 @@
         <v>43308</v>
       </c>
       <c r="B30" s="2">
-        <v>80.02</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2">
-        <v>80</v>
+        <v>79.98</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -844,10 +845,10 @@
         <v>43315</v>
       </c>
       <c r="B31" s="2">
-        <v>79.44</v>
+        <v>79.42</v>
       </c>
       <c r="C31" s="2">
-        <v>79.69</v>
+        <v>79.67</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -855,10 +856,10 @@
         <v>43322</v>
       </c>
       <c r="B32" s="2">
-        <v>78.75</v>
+        <v>78.73</v>
       </c>
       <c r="C32" s="2">
-        <v>79.12</v>
+        <v>79.099999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -866,7 +867,7 @@
         <v>43329</v>
       </c>
       <c r="B33" s="2">
-        <v>78.75</v>
+        <v>78.73</v>
       </c>
       <c r="C33" s="2">
         <v>79.16</v>
@@ -877,7 +878,7 @@
         <v>43336</v>
       </c>
       <c r="B34" s="2">
-        <v>78.86</v>
+        <v>78.87</v>
       </c>
       <c r="C34" s="2">
         <v>79.239999999999995</v>
@@ -888,7 +889,7 @@
         <v>43343</v>
       </c>
       <c r="B35" s="2">
-        <v>79.09</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="C35" s="2">
         <v>79.25</v>
@@ -899,10 +900,10 @@
         <v>43350</v>
       </c>
       <c r="B36" s="2">
-        <v>79.44</v>
+        <v>79.459999999999994</v>
       </c>
       <c r="C36" s="2">
-        <v>79.61</v>
+        <v>79.63</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -910,10 +911,10 @@
         <v>43357</v>
       </c>
       <c r="B37" s="2">
-        <v>80.599999999999994</v>
+        <v>80.62</v>
       </c>
       <c r="C37" s="2">
-        <v>79.83</v>
+        <v>79.84</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -921,10 +922,10 @@
         <v>43364</v>
       </c>
       <c r="B38" s="2">
-        <v>80.489999999999995</v>
+        <v>80.48</v>
       </c>
       <c r="C38" s="2">
-        <v>80.430000000000007</v>
+        <v>80.45</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -932,10 +933,10 @@
         <v>43371</v>
       </c>
       <c r="B39" s="2">
-        <v>80.84</v>
+        <v>80.86</v>
       </c>
       <c r="C39" s="2">
-        <v>81.42</v>
+        <v>81.47</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -943,10 +944,10 @@
         <v>43378</v>
       </c>
       <c r="B40" s="2">
-        <v>80.02</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2">
-        <v>81.61</v>
+        <v>81.62</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -954,10 +955,10 @@
         <v>43385</v>
       </c>
       <c r="B41" s="2">
-        <v>80.84</v>
+        <v>80.86</v>
       </c>
       <c r="C41" s="2">
-        <v>81.93</v>
+        <v>81.95</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -965,10 +966,10 @@
         <v>43392</v>
       </c>
       <c r="B42" s="2">
-        <v>80.37</v>
+        <v>80.349999999999994</v>
       </c>
       <c r="C42" s="2">
-        <v>82.04</v>
+        <v>82.05</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -976,10 +977,10 @@
         <v>43399</v>
       </c>
       <c r="B43" s="2">
-        <v>80.14</v>
+        <v>80.13</v>
       </c>
       <c r="C43" s="2">
-        <v>81.66</v>
+        <v>81.64</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -987,7 +988,7 @@
         <v>43406</v>
       </c>
       <c r="B44" s="2">
-        <v>79.44</v>
+        <v>79.42</v>
       </c>
       <c r="C44" s="2">
         <v>81.709999999999994</v>
@@ -998,10 +999,10 @@
         <v>43413</v>
       </c>
       <c r="B45" s="2">
-        <v>79.09</v>
+        <v>79.069999999999993</v>
       </c>
       <c r="C45" s="2">
-        <v>80.75</v>
+        <v>80.73</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1009,10 +1010,10 @@
         <v>43420</v>
       </c>
       <c r="B46" s="2">
-        <v>78.400000000000006</v>
+        <v>78.37</v>
       </c>
       <c r="C46" s="2">
-        <v>80.5</v>
+        <v>80.489999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1020,10 +1021,10 @@
         <v>43427</v>
       </c>
       <c r="B47" s="2">
-        <v>77.58</v>
+        <v>77.56</v>
       </c>
       <c r="C47" s="2">
-        <v>79.23</v>
+        <v>79.209999999999994</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1031,7 +1032,7 @@
         <v>43434</v>
       </c>
       <c r="B48" s="2">
-        <v>76.89</v>
+        <v>76.87</v>
       </c>
       <c r="C48" s="2">
         <v>79.31</v>
@@ -1042,10 +1043,10 @@
         <v>43441</v>
       </c>
       <c r="B49" s="2">
-        <v>76.31</v>
+        <v>76.290000000000006</v>
       </c>
       <c r="C49" s="2">
-        <v>78.81</v>
+        <v>78.790000000000006</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1053,10 +1054,10 @@
         <v>43448</v>
       </c>
       <c r="B50" s="2">
-        <v>76.19</v>
+        <v>76.180000000000007</v>
       </c>
       <c r="C50" s="2">
-        <v>78.13</v>
+        <v>78.11</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1064,10 +1065,10 @@
         <v>43455</v>
       </c>
       <c r="B51" s="2">
-        <v>75.260000000000005</v>
+        <v>75.239999999999995</v>
       </c>
       <c r="C51" s="2">
-        <v>77.790000000000006</v>
+        <v>77.77</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1075,10 +1076,10 @@
         <v>43462</v>
       </c>
       <c r="B52" s="2">
-        <v>75.489999999999995</v>
+        <v>75.5</v>
       </c>
       <c r="C52" s="2">
-        <v>76.8</v>
+        <v>76.78</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1086,10 +1087,10 @@
         <v>43469</v>
       </c>
       <c r="B53" s="2">
-        <v>74.8</v>
+        <v>74.78</v>
       </c>
       <c r="C53" s="2">
-        <v>76.03</v>
+        <v>76.010000000000005</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1097,10 +1098,10 @@
         <v>43476</v>
       </c>
       <c r="B54" s="2">
-        <v>75.03</v>
+        <v>75.040000000000006</v>
       </c>
       <c r="C54" s="2">
-        <v>76.42</v>
+        <v>76.44</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1108,7 +1109,7 @@
         <v>43483</v>
       </c>
       <c r="B55" s="2">
-        <v>75.84</v>
+        <v>75.88</v>
       </c>
       <c r="C55" s="2">
         <v>76.45</v>
@@ -1119,10 +1120,10 @@
         <v>43490</v>
       </c>
       <c r="B56" s="2">
-        <v>77.12</v>
+        <v>77.14</v>
       </c>
       <c r="C56" s="2">
-        <v>77.239999999999995</v>
+        <v>77.260000000000005</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1130,10 +1131,10 @@
         <v>43497</v>
       </c>
       <c r="B57" s="2">
-        <v>77.58</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="C57" s="2">
-        <v>77.790000000000006</v>
+        <v>77.81</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1141,10 +1142,10 @@
         <v>43507</v>
       </c>
       <c r="B58" s="2">
-        <v>77.239999999999995</v>
+        <v>77.22</v>
       </c>
       <c r="C58" s="2">
-        <v>77.989999999999995</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1152,7 +1153,7 @@
         <v>43511</v>
       </c>
       <c r="B59" s="2">
-        <v>77.239999999999995</v>
+        <v>77.22</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -1163,10 +1164,10 @@
         <v>43518</v>
       </c>
       <c r="B60" s="2">
-        <v>77.58</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="C60" s="2">
-        <v>79.06</v>
+        <v>79.08</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1174,10 +1175,10 @@
         <v>43525</v>
       </c>
       <c r="B61" s="2">
-        <v>77.239999999999995</v>
+        <v>77.22</v>
       </c>
       <c r="C61" s="2">
-        <v>78.88</v>
+        <v>78.87</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1185,10 +1186,10 @@
         <v>43532</v>
       </c>
       <c r="B62" s="2">
-        <v>74.099999999999994</v>
+        <v>73.94</v>
       </c>
       <c r="C62" s="2">
-        <v>76.959999999999994</v>
+        <v>76.86</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1196,10 +1197,10 @@
         <v>43539</v>
       </c>
       <c r="B63" s="2">
-        <v>73.87</v>
+        <v>73.86</v>
       </c>
       <c r="C63" s="2">
-        <v>76.58</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1207,10 +1208,10 @@
         <v>43546</v>
       </c>
       <c r="B64" s="2">
-        <v>75.03</v>
+        <v>75.05</v>
       </c>
       <c r="C64" s="2">
-        <v>77.5</v>
+        <v>77.52</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1218,10 +1219,10 @@
         <v>43553</v>
       </c>
       <c r="B65" s="2">
-        <v>75.73</v>
+        <v>75.75</v>
       </c>
       <c r="C65" s="2">
-        <v>78.31</v>
+        <v>78.33</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1229,10 +1230,10 @@
         <v>43559</v>
       </c>
       <c r="B66" s="2">
-        <v>79.91</v>
+        <v>79.930000000000007</v>
       </c>
       <c r="C66" s="2">
-        <v>79.45</v>
+        <v>79.47</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1240,10 +1241,10 @@
         <v>43567</v>
       </c>
       <c r="B67" s="2">
-        <v>81.42</v>
+        <v>81.44</v>
       </c>
       <c r="C67" s="2">
-        <v>81.739999999999995</v>
+        <v>81.760000000000005</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1251,10 +1252,10 @@
         <v>43574</v>
       </c>
       <c r="B68" s="2">
-        <v>82.46</v>
+        <v>82.48</v>
       </c>
       <c r="C68" s="2">
-        <v>83.05</v>
+        <v>83.07</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1262,10 +1263,10 @@
         <v>43581</v>
       </c>
       <c r="B69" s="2">
-        <v>83.16</v>
+        <v>83.18</v>
       </c>
       <c r="C69" s="2">
-        <v>83.54</v>
+        <v>83.56</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1273,10 +1274,10 @@
         <v>43590</v>
       </c>
       <c r="B70" s="2">
-        <v>83.39</v>
+        <v>83.4</v>
       </c>
       <c r="C70" s="2">
-        <v>83.96</v>
+        <v>83.98</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1284,10 +1285,10 @@
         <v>43595</v>
       </c>
       <c r="B71" s="2">
-        <v>81.88</v>
+        <v>81.8</v>
       </c>
       <c r="C71" s="2">
-        <v>83.43</v>
+        <v>83.41</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1295,10 +1296,10 @@
         <v>43602</v>
       </c>
       <c r="B72" s="2">
-        <v>82.23</v>
+        <v>82.25</v>
       </c>
       <c r="C72" s="2">
-        <v>83.69</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1306,10 +1307,10 @@
         <v>43609</v>
       </c>
       <c r="B73" s="2">
-        <v>84.32</v>
+        <v>84.34</v>
       </c>
       <c r="C73" s="2">
-        <v>84.17</v>
+        <v>84.19</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1317,10 +1318,10 @@
         <v>43616</v>
       </c>
       <c r="B74" s="2">
-        <v>84.67</v>
+        <v>84.69</v>
       </c>
       <c r="C74" s="2">
-        <v>84.37</v>
+        <v>84.38</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1328,10 +1329,10 @@
         <v>43622</v>
       </c>
       <c r="B75" s="2">
-        <v>84.9</v>
+        <v>84.91</v>
       </c>
       <c r="C75" s="2">
-        <v>85.05</v>
+        <v>85.07</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1339,7 +1340,7 @@
         <v>43630</v>
       </c>
       <c r="B76" s="2">
-        <v>84.67</v>
+        <v>84.66</v>
       </c>
       <c r="C76" s="2">
         <v>85.03</v>
@@ -1350,10 +1351,10 @@
         <v>43637</v>
       </c>
       <c r="B77" s="2">
-        <v>84.44</v>
+        <v>84.43</v>
       </c>
       <c r="C77" s="2">
-        <v>84.54</v>
+        <v>84.52</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1361,10 +1362,10 @@
         <v>43644</v>
       </c>
       <c r="B78" s="2">
-        <v>81.650000000000006</v>
+        <v>81.63</v>
       </c>
       <c r="C78" s="2">
-        <v>83.81</v>
+        <v>83.79</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1372,10 +1373,10 @@
         <v>43651</v>
       </c>
       <c r="B79" s="2">
-        <v>80.14</v>
+        <v>80.12</v>
       </c>
       <c r="C79" s="2">
-        <v>81.13</v>
+        <v>81.11</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1383,10 +1384,10 @@
         <v>43658</v>
       </c>
       <c r="B80" s="2">
-        <v>79.91</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="C80" s="2">
-        <v>80.849999999999994</v>
+        <v>80.84</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1394,10 +1395,10 @@
         <v>43665</v>
       </c>
       <c r="B81" s="2">
-        <v>80.37</v>
+        <v>80.39</v>
       </c>
       <c r="C81" s="2">
-        <v>80.430000000000007</v>
+        <v>80.41</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1405,10 +1406,10 @@
         <v>43672</v>
       </c>
       <c r="B82" s="2">
-        <v>80.14</v>
+        <v>80.13</v>
       </c>
       <c r="C82" s="2">
-        <v>80.73</v>
+        <v>80.75</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1416,10 +1417,10 @@
         <v>43679</v>
       </c>
       <c r="B83" s="2">
-        <v>80.95</v>
+        <v>80.97</v>
       </c>
       <c r="C83" s="2">
-        <v>78.44</v>
+        <v>78.42</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1427,10 +1428,10 @@
         <v>43686</v>
       </c>
       <c r="B84" s="2">
-        <v>82.69</v>
+        <v>82.78</v>
       </c>
       <c r="C84" s="2">
-        <v>82.04</v>
+        <v>82.06</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1438,10 +1439,10 @@
         <v>43693</v>
       </c>
       <c r="B85" s="2">
-        <v>81.069999999999993</v>
+        <v>81.05</v>
       </c>
       <c r="C85" s="2">
-        <v>82.25</v>
+        <v>82.26</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1449,10 +1450,10 @@
         <v>43700</v>
       </c>
       <c r="B86" s="2">
-        <v>81.180000000000007</v>
+        <v>81.19</v>
       </c>
       <c r="C86" s="2">
-        <v>82.07</v>
+        <v>82.06</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1460,10 +1461,10 @@
         <v>43707</v>
       </c>
       <c r="B87" s="2">
-        <v>80.260000000000005</v>
+        <v>80.239999999999995</v>
       </c>
       <c r="C87" s="2">
-        <v>81.599999999999994</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1471,10 +1472,10 @@
         <v>43714</v>
       </c>
       <c r="B88" s="2">
-        <v>80.84</v>
+        <v>80.86</v>
       </c>
       <c r="C88" s="2">
-        <v>82.95</v>
+        <v>82.97</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1482,10 +1483,10 @@
         <v>43720</v>
       </c>
       <c r="B89" s="2">
-        <v>80.84</v>
+        <v>80.86</v>
       </c>
       <c r="C89" s="2">
-        <v>83.15</v>
+        <v>83.16</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1493,7 +1494,7 @@
         <v>43728</v>
       </c>
       <c r="B90" s="2">
-        <v>81.180000000000007</v>
+        <v>81.2</v>
       </c>
       <c r="C90" s="2">
         <v>83.06</v>
@@ -1504,10 +1505,10 @@
         <v>43735</v>
       </c>
       <c r="B91" s="2">
-        <v>70.849999999999994</v>
+        <v>70.83</v>
       </c>
       <c r="C91" s="2">
-        <v>79.319999999999993</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1515,10 +1516,10 @@
         <v>43742</v>
       </c>
       <c r="B92" s="2">
-        <v>68.52</v>
+        <v>68.5</v>
       </c>
       <c r="C92" s="2">
-        <v>70.33</v>
+        <v>70.31</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1526,10 +1527,10 @@
         <v>43749</v>
       </c>
       <c r="B93" s="2">
-        <v>77</v>
+        <v>77.02</v>
       </c>
       <c r="C93" s="2">
-        <v>76.94</v>
+        <v>76.959999999999994</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1537,10 +1538,10 @@
         <v>43756</v>
       </c>
       <c r="B94" s="2">
-        <v>76.540000000000006</v>
+        <v>76.52</v>
       </c>
       <c r="C94" s="2">
-        <v>78.010000000000005</v>
+        <v>78.03</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1548,10 +1549,10 @@
         <v>43763</v>
       </c>
       <c r="B95" s="2">
-        <v>76.77</v>
+        <v>76.78</v>
       </c>
       <c r="C95" s="2">
-        <v>77.239999999999995</v>
+        <v>77.22</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1559,10 +1560,10 @@
         <v>43770</v>
       </c>
       <c r="B96" s="2">
-        <v>77.930000000000007</v>
+        <v>77.95</v>
       </c>
       <c r="C96" s="2">
-        <v>78.48</v>
+        <v>78.540000000000006</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1570,10 +1571,10 @@
         <v>43777</v>
       </c>
       <c r="B97" s="2">
-        <v>76.540000000000006</v>
+        <v>76.52</v>
       </c>
       <c r="C97" s="2">
-        <v>77.39</v>
+        <v>77.37</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1581,10 +1582,10 @@
         <v>43784</v>
       </c>
       <c r="B98" s="2">
-        <v>77.930000000000007</v>
+        <v>77.95</v>
       </c>
       <c r="C98" s="2">
-        <v>78.760000000000005</v>
+        <v>78.78</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1592,10 +1593,10 @@
         <v>43791</v>
       </c>
       <c r="B99" s="2">
-        <v>77.239999999999995</v>
+        <v>77.22</v>
       </c>
       <c r="C99" s="2">
-        <v>78.47</v>
+        <v>78.459999999999994</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1603,10 +1604,10 @@
         <v>43798</v>
       </c>
       <c r="B100" s="2">
-        <v>78.28</v>
+        <v>78.3</v>
       </c>
       <c r="C100" s="2">
-        <v>79.89</v>
+        <v>79.91</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1614,10 +1615,10 @@
         <v>43805</v>
       </c>
       <c r="B101" s="2">
-        <v>79.09</v>
+        <v>79.11</v>
       </c>
       <c r="C101" s="2">
-        <v>80.94</v>
+        <v>80.959999999999994</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1625,10 +1626,10 @@
         <v>43812</v>
       </c>
       <c r="B102" s="2">
-        <v>77.819999999999993</v>
+        <v>77.760000000000005</v>
       </c>
       <c r="C102" s="2">
-        <v>80.23</v>
+        <v>80.209999999999994</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1636,10 +1637,10 @@
         <v>43819</v>
       </c>
       <c r="B103" s="2">
-        <v>77.819999999999993</v>
+        <v>77.760000000000005</v>
       </c>
       <c r="C103" s="2">
-        <v>79.23</v>
+        <v>79.209999999999994</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1647,10 +1648,10 @@
         <v>43826</v>
       </c>
       <c r="B104" s="2">
-        <v>76.89</v>
+        <v>76.87</v>
       </c>
       <c r="C104" s="2">
-        <v>78.989999999999995</v>
+        <v>78.98</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1658,10 +1659,10 @@
         <v>43833</v>
       </c>
       <c r="B105" s="2">
-        <v>78.400000000000006</v>
+        <v>78.42</v>
       </c>
       <c r="C105" s="2">
-        <v>79.650000000000006</v>
+        <v>79.67</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1669,10 +1670,10 @@
         <v>43840</v>
       </c>
       <c r="B106" s="2">
-        <v>77.58</v>
+        <v>77.56</v>
       </c>
       <c r="C106" s="2">
-        <v>79.41</v>
+        <v>79.400000000000006</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1680,10 +1681,10 @@
         <v>43847</v>
       </c>
       <c r="B107" s="2">
-        <v>77.58</v>
+        <v>77.56</v>
       </c>
       <c r="C107" s="2">
-        <v>78.88</v>
+        <v>78.86</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1691,10 +1692,10 @@
         <v>43853</v>
       </c>
       <c r="B108" s="2">
-        <v>78.510000000000005</v>
+        <v>78.53</v>
       </c>
       <c r="C108" s="2">
-        <v>80.010000000000005</v>
+        <v>80.03</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1702,10 +1703,10 @@
         <v>43868</v>
       </c>
       <c r="B109" s="2">
-        <v>74.91</v>
+        <v>74.89</v>
       </c>
       <c r="C109" s="2">
-        <v>77.760000000000005</v>
+        <v>77.739999999999995</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1713,10 +1714,10 @@
         <v>43875</v>
       </c>
       <c r="B110" s="2">
-        <v>72.94</v>
+        <v>72.92</v>
       </c>
       <c r="C110" s="2">
-        <v>74.7</v>
+        <v>74.680000000000007</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1724,10 +1725,10 @@
         <v>43882</v>
       </c>
       <c r="B111" s="2">
-        <v>71.430000000000007</v>
+        <v>71.41</v>
       </c>
       <c r="C111" s="2">
-        <v>73.930000000000007</v>
+        <v>73.91</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1735,10 +1736,10 @@
         <v>43889</v>
       </c>
       <c r="B112" s="2">
-        <v>71.89</v>
+        <v>71.91</v>
       </c>
       <c r="C112" s="2">
-        <v>73.819999999999993</v>
+        <v>73.81</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1746,7 +1747,7 @@
         <v>43896</v>
       </c>
       <c r="B113" s="2">
-        <v>72.239999999999995</v>
+        <v>72.260000000000005</v>
       </c>
       <c r="C113" s="2">
         <v>73.78</v>
@@ -1757,10 +1758,10 @@
         <v>43903</v>
       </c>
       <c r="B114" s="2">
-        <v>72.59</v>
+        <v>72.61</v>
       </c>
       <c r="C114" s="2">
-        <v>73.900000000000006</v>
+        <v>73.91</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1768,10 +1769,10 @@
         <v>43910</v>
       </c>
       <c r="B115" s="2">
-        <v>73.75</v>
+        <v>73.77</v>
       </c>
       <c r="C115" s="2">
-        <v>75.260000000000005</v>
+        <v>75.28</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1779,10 +1780,10 @@
         <v>43917</v>
       </c>
       <c r="B116" s="2">
-        <v>75.260000000000005</v>
+        <v>75.28</v>
       </c>
       <c r="C116" s="2">
-        <v>76.19</v>
+        <v>76.209999999999994</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1790,10 +1791,10 @@
         <v>43924</v>
       </c>
       <c r="B117" s="2">
-        <v>77.349999999999994</v>
+        <v>77.37</v>
       </c>
       <c r="C117" s="2">
-        <v>77.8</v>
+        <v>77.819999999999993</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1801,10 +1802,10 @@
         <v>43931</v>
       </c>
       <c r="B118" s="2">
-        <v>78.86</v>
+        <v>78.88</v>
       </c>
       <c r="C118" s="2">
-        <v>78.81</v>
+        <v>78.83</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1812,10 +1813,10 @@
         <v>43938</v>
       </c>
       <c r="B119" s="2">
-        <v>80.489999999999995</v>
+        <v>80.510000000000005</v>
       </c>
       <c r="C119" s="2">
-        <v>79.97</v>
+        <v>80.03</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1823,10 +1824,10 @@
         <v>43945</v>
       </c>
       <c r="B120" s="2">
-        <v>80.489999999999995</v>
+        <v>80.510000000000005</v>
       </c>
       <c r="C120" s="2">
-        <v>80.59</v>
+        <v>80.61</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1834,10 +1835,10 @@
         <v>43951</v>
       </c>
       <c r="B121" s="2">
-        <v>80.95</v>
+        <v>80.97</v>
       </c>
       <c r="C121" s="2">
-        <v>81.680000000000007</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1845,10 +1846,10 @@
         <v>43959</v>
       </c>
       <c r="B122" s="2">
-        <v>88.28</v>
+        <v>88.3</v>
       </c>
       <c r="C122" s="2">
-        <v>89.1</v>
+        <v>89.12</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1856,10 +1857,10 @@
         <v>43966</v>
       </c>
       <c r="B123" s="2">
-        <v>89.84</v>
+        <v>89.86</v>
       </c>
       <c r="C123" s="2">
-        <v>89.94</v>
+        <v>89.98</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1867,10 +1868,10 @@
         <v>43973</v>
       </c>
       <c r="B124" s="2">
-        <v>90.49</v>
+        <v>90.51</v>
       </c>
       <c r="C124" s="2">
-        <v>90.95</v>
+        <v>90.97</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1878,10 +1879,10 @@
         <v>43980</v>
       </c>
       <c r="B125" s="2">
-        <v>91.02</v>
+        <v>91.05</v>
       </c>
       <c r="C125" s="2">
-        <v>91.38</v>
+        <v>91.4</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1889,10 +1890,10 @@
         <v>43987</v>
       </c>
       <c r="B126" s="2">
-        <v>91.02</v>
+        <v>91.05</v>
       </c>
       <c r="C126" s="2">
-        <v>91.9</v>
+        <v>91.93</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1900,10 +1901,10 @@
         <v>43994</v>
       </c>
       <c r="B127" s="2">
-        <v>91.67</v>
+        <v>91.69</v>
       </c>
       <c r="C127" s="2">
-        <v>92.35</v>
+        <v>92.37</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1911,10 +1912,10 @@
         <v>44001</v>
       </c>
       <c r="B128" s="2">
-        <v>91.54</v>
+        <v>91.53</v>
       </c>
       <c r="C128" s="2">
-        <v>92.66</v>
+        <v>92.68</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1922,10 +1923,10 @@
         <v>44008</v>
       </c>
       <c r="B129" s="2">
-        <v>91.8</v>
+        <v>91.81</v>
       </c>
       <c r="C129" s="2">
-        <v>93.42</v>
+        <v>93.44</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1933,7 +1934,7 @@
         <v>44015</v>
       </c>
       <c r="B130" s="2">
-        <v>91.02</v>
+        <v>91</v>
       </c>
       <c r="C130" s="2">
         <v>93.35</v>
@@ -1944,10 +1945,10 @@
         <v>44022</v>
       </c>
       <c r="B131" s="2">
-        <v>90.63</v>
+        <v>90.61</v>
       </c>
       <c r="C131" s="2">
-        <v>93.08</v>
+        <v>93.07</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1955,10 +1956,10 @@
         <v>44029</v>
       </c>
       <c r="B132" s="2">
-        <v>90.76</v>
+        <v>90.77</v>
       </c>
       <c r="C132" s="2">
-        <v>92.96</v>
+        <v>92.95</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1966,10 +1967,10 @@
         <v>44036</v>
       </c>
       <c r="B133" s="2">
-        <v>91.02</v>
+        <v>91.03</v>
       </c>
       <c r="C133" s="2">
-        <v>93.08</v>
+        <v>93.09</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1977,10 +1978,10 @@
         <v>44043</v>
       </c>
       <c r="B134" s="2">
-        <v>91.15</v>
+        <v>91.16</v>
       </c>
       <c r="C134" s="2">
-        <v>94.5</v>
+        <v>94.52</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1988,10 +1989,10 @@
         <v>44050</v>
       </c>
       <c r="B135" s="2">
-        <v>91.41</v>
+        <v>91.42</v>
       </c>
       <c r="C135" s="2">
-        <v>94.75</v>
+        <v>94.76</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1999,10 +2000,10 @@
         <v>44057</v>
       </c>
       <c r="B136" s="2">
-        <v>91.93</v>
+        <v>91.95</v>
       </c>
       <c r="C136" s="2">
-        <v>95.16</v>
+        <v>95.18</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2010,10 +2011,10 @@
         <v>44064</v>
       </c>
       <c r="B137" s="2">
-        <v>91.41</v>
+        <v>91.39</v>
       </c>
       <c r="C137" s="2">
-        <v>94.8</v>
+        <v>94.78</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2021,10 +2022,10 @@
         <v>44071</v>
       </c>
       <c r="B138" s="2">
-        <v>91.41</v>
+        <v>91.39</v>
       </c>
       <c r="C138" s="2">
-        <v>94.64</v>
+        <v>94.63</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2032,10 +2033,10 @@
         <v>44078</v>
       </c>
       <c r="B139" s="2">
-        <v>91.41</v>
+        <v>91.39</v>
       </c>
       <c r="C139" s="2">
-        <v>94.52</v>
+        <v>94.51</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2043,10 +2044,10 @@
         <v>44085</v>
       </c>
       <c r="B140" s="2">
-        <v>90.89</v>
+        <v>90.87</v>
       </c>
       <c r="C140" s="2">
-        <v>94.31</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2054,7 +2055,7 @@
         <v>44092</v>
       </c>
       <c r="B141" s="2">
-        <v>90.63</v>
+        <v>90.62</v>
       </c>
       <c r="C141" s="2">
         <v>94.25</v>
@@ -2065,10 +2066,10 @@
         <v>44099</v>
       </c>
       <c r="B142" s="2">
-        <v>89.06</v>
+        <v>89.04</v>
       </c>
       <c r="C142" s="2">
-        <v>93.69</v>
+        <v>93.67</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2076,10 +2077,10 @@
         <v>44104</v>
       </c>
       <c r="B143" s="2">
-        <v>88.54</v>
+        <v>88.52</v>
       </c>
       <c r="C143" s="2">
-        <v>93.04</v>
+        <v>93.01</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2087,10 +2088,10 @@
         <v>44113</v>
       </c>
       <c r="B144" s="2">
-        <v>89.19</v>
+        <v>89.21</v>
       </c>
       <c r="C144" s="2">
-        <v>93.2</v>
+        <v>93.21</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2098,10 +2099,10 @@
         <v>44120</v>
       </c>
       <c r="B145" s="2">
-        <v>88.41</v>
+        <v>88.39</v>
       </c>
       <c r="C145" s="2">
-        <v>92.91</v>
+        <v>92.9</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2109,10 +2110,10 @@
         <v>44127</v>
       </c>
       <c r="B146" s="2">
-        <v>88.28</v>
+        <v>88.27</v>
       </c>
       <c r="C146" s="2">
-        <v>92.34</v>
+        <v>92.31</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2120,10 +2121,10 @@
         <v>44134</v>
       </c>
       <c r="B147" s="2">
-        <v>87.5</v>
+        <v>87.48</v>
       </c>
       <c r="C147" s="2">
-        <v>92.47</v>
+        <v>92.48</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2131,10 +2132,10 @@
         <v>44141</v>
       </c>
       <c r="B148" s="2">
-        <v>86.46</v>
+        <v>86.44</v>
       </c>
       <c r="C148" s="2">
-        <v>92.27</v>
+        <v>92.26</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2142,10 +2143,10 @@
         <v>44148</v>
       </c>
       <c r="B149" s="2">
-        <v>86.33</v>
+        <v>86.32</v>
       </c>
       <c r="C149" s="2">
-        <v>92.11</v>
+        <v>92.1</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2153,10 +2154,10 @@
         <v>44155</v>
       </c>
       <c r="B150" s="2">
-        <v>86.46</v>
+        <v>86.47</v>
       </c>
       <c r="C150" s="2">
-        <v>91.64</v>
+        <v>91.62</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2164,10 +2165,10 @@
         <v>44162</v>
       </c>
       <c r="B151" s="2">
-        <v>86.33</v>
+        <v>86.32</v>
       </c>
       <c r="C151" s="2">
-        <v>92.47</v>
+        <v>92.49</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2175,7 +2176,7 @@
         <v>44169</v>
       </c>
       <c r="B152" s="2">
-        <v>85.42</v>
+        <v>85.4</v>
       </c>
       <c r="C152" s="2">
         <v>92.4</v>
@@ -2186,10 +2187,10 @@
         <v>44176</v>
       </c>
       <c r="B153" s="2">
-        <v>84.77</v>
+        <v>84.75</v>
       </c>
       <c r="C153" s="2">
-        <v>91.47</v>
+        <v>91.42</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2197,10 +2198,10 @@
         <v>44183</v>
       </c>
       <c r="B154" s="2">
-        <v>85.29</v>
+        <v>85.31</v>
       </c>
       <c r="C154" s="2">
-        <v>91.68</v>
+        <v>91.69</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2208,10 +2209,10 @@
         <v>44190</v>
       </c>
       <c r="B155" s="2">
-        <v>85.55</v>
+        <v>85.56</v>
       </c>
       <c r="C155" s="2">
-        <v>91.87</v>
+        <v>91.88</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2219,10 +2220,10 @@
         <v>44196</v>
       </c>
       <c r="B156" s="2">
-        <v>86.07</v>
+        <v>86.1</v>
       </c>
       <c r="C156" s="2">
-        <v>92.08</v>
+        <v>92.09</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2230,10 +2231,10 @@
         <v>44204</v>
       </c>
       <c r="B157" s="2">
-        <v>85.29</v>
+        <v>85.27</v>
       </c>
       <c r="C157" s="2">
-        <v>91.77</v>
+        <v>91.75</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2241,10 +2242,10 @@
         <v>44211</v>
       </c>
       <c r="B158" s="2">
-        <v>84.24</v>
+        <v>84.22</v>
       </c>
       <c r="C158" s="2">
-        <v>91.24</v>
+        <v>91.22</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2252,10 +2253,10 @@
         <v>44218</v>
       </c>
       <c r="B159" s="2">
-        <v>83.2</v>
+        <v>83.18</v>
       </c>
       <c r="C159" s="2">
-        <v>91.12</v>
+        <v>91.11</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2263,10 +2264,10 @@
         <v>44225</v>
       </c>
       <c r="B160" s="2">
-        <v>82.03</v>
+        <v>82.01</v>
       </c>
       <c r="C160" s="2">
-        <v>90.53</v>
+        <v>90.51</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2274,10 +2275,10 @@
         <v>44232</v>
       </c>
       <c r="B161" s="2">
-        <v>83.2</v>
+        <v>83.22</v>
       </c>
       <c r="C161" s="2">
-        <v>90.94</v>
+        <v>90.96</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2285,10 +2286,10 @@
         <v>44246</v>
       </c>
       <c r="B162" s="2">
-        <v>83.98</v>
+        <v>84</v>
       </c>
       <c r="C162" s="2">
-        <v>92.19</v>
+        <v>92.21</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2296,7 +2297,7 @@
         <v>44253</v>
       </c>
       <c r="B163" s="2">
-        <v>83.85</v>
+        <v>83.84</v>
       </c>
       <c r="C163" s="2">
         <v>92.28</v>
@@ -2307,10 +2308,10 @@
         <v>44260</v>
       </c>
       <c r="B164" s="2">
-        <v>83.33</v>
+        <v>83.31</v>
       </c>
       <c r="C164" s="2">
-        <v>92.05</v>
+        <v>92.04</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2318,10 +2319,10 @@
         <v>44267</v>
       </c>
       <c r="B165" s="2">
-        <v>80.34</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="C165" s="2">
-        <v>90.39</v>
+        <v>90.37</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2329,10 +2330,10 @@
         <v>44274</v>
       </c>
       <c r="B166" s="2">
-        <v>79.69</v>
+        <v>79.67</v>
       </c>
       <c r="C166" s="2">
-        <v>87.16</v>
+        <v>87.14</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2340,10 +2341,10 @@
         <v>44281</v>
       </c>
       <c r="B167" s="2">
-        <v>79.56</v>
+        <v>79.55</v>
       </c>
       <c r="C167" s="2">
-        <v>88.3</v>
+        <v>88.32</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2351,10 +2352,10 @@
         <v>44288</v>
       </c>
       <c r="B168" s="2">
-        <v>77.47</v>
+        <v>77.37</v>
       </c>
       <c r="C168" s="2">
-        <v>86.92</v>
+        <v>86.9</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2362,7 +2363,7 @@
         <v>44295</v>
       </c>
       <c r="B169" s="2">
-        <v>77.86</v>
+        <v>77.88</v>
       </c>
       <c r="C169" s="2">
         <v>86.94</v>
@@ -2373,10 +2374,10 @@
         <v>44302</v>
       </c>
       <c r="B170" s="2">
-        <v>78.13</v>
+        <v>78.14</v>
       </c>
       <c r="C170" s="2">
-        <v>87.67</v>
+        <v>87.69</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2384,10 +2385,10 @@
         <v>44309</v>
       </c>
       <c r="B171" s="2">
-        <v>79.430000000000007</v>
+        <v>79.45</v>
       </c>
       <c r="C171" s="2">
-        <v>88.75</v>
+        <v>88.77</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2395,10 +2396,10 @@
         <v>44316</v>
       </c>
       <c r="B172" s="2">
-        <v>80.08</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="C172" s="2">
-        <v>89.93</v>
+        <v>89.95</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2406,10 +2407,10 @@
         <v>44323</v>
       </c>
       <c r="B173" s="2">
-        <v>80.47</v>
+        <v>80.489999999999995</v>
       </c>
       <c r="C173" s="2">
-        <v>90.59</v>
+        <v>90.61</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2417,10 +2418,10 @@
         <v>44330</v>
       </c>
       <c r="B174" s="2">
-        <v>80.34</v>
+        <v>80.33</v>
       </c>
       <c r="C174" s="2">
-        <v>90.87</v>
+        <v>90.88</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2428,10 +2429,10 @@
         <v>44337</v>
       </c>
       <c r="B175" s="2">
-        <v>80.209999999999994</v>
+        <v>80.2</v>
       </c>
       <c r="C175" s="2">
-        <v>91.18</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2439,10 +2440,10 @@
         <v>44344</v>
       </c>
       <c r="B176" s="2">
-        <v>80.989999999999995</v>
+        <v>81.010000000000005</v>
       </c>
       <c r="C176" s="2">
-        <v>91.41</v>
+        <v>91.42</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2450,10 +2451,10 @@
         <v>44351</v>
       </c>
       <c r="B177" s="2">
-        <v>80.86</v>
+        <v>80.849999999999994</v>
       </c>
       <c r="C177" s="2">
-        <v>91.89</v>
+        <v>91.91</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2461,10 +2462,10 @@
         <v>44358</v>
       </c>
       <c r="B178" s="2">
-        <v>80.34</v>
+        <v>80.319999999999993</v>
       </c>
       <c r="C178" s="2">
-        <v>91.69</v>
+        <v>91.68</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2472,7 +2473,7 @@
         <v>44365</v>
       </c>
       <c r="B179" s="2">
-        <v>80.209999999999994</v>
+        <v>80.2</v>
       </c>
       <c r="C179" s="2">
         <v>91.67</v>
@@ -2483,10 +2484,10 @@
         <v>44372</v>
       </c>
       <c r="B180" s="2">
-        <v>79.69</v>
+        <v>79.67</v>
       </c>
       <c r="C180" s="2">
-        <v>91.17</v>
+        <v>91.15</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2494,10 +2495,10 @@
         <v>44379</v>
       </c>
       <c r="B181" s="2">
-        <v>57.94</v>
+        <v>57.93</v>
       </c>
       <c r="C181" s="2">
-        <v>81.010000000000005</v>
+        <v>80.989999999999995</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2505,10 +2506,10 @@
         <v>44386</v>
       </c>
       <c r="B182" s="2">
-        <v>78.260000000000005</v>
+        <v>78.28</v>
       </c>
       <c r="C182" s="2">
-        <v>86</v>
+        <v>86.02</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2516,10 +2517,10 @@
         <v>44393</v>
       </c>
       <c r="B183" s="2">
-        <v>76.69</v>
+        <v>76.67</v>
       </c>
       <c r="C183" s="2">
-        <v>88.55</v>
+        <v>88.57</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2527,10 +2528,10 @@
         <v>44400</v>
       </c>
       <c r="B184" s="2">
-        <v>75.650000000000006</v>
+        <v>75.63</v>
       </c>
       <c r="C184" s="2">
-        <v>88.04</v>
+        <v>88.02</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2538,10 +2539,10 @@
         <v>44407</v>
       </c>
       <c r="B185" s="2">
-        <v>74.349999999999994</v>
+        <v>74.33</v>
       </c>
       <c r="C185" s="2">
-        <v>86.83</v>
+        <v>86.81</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2549,10 +2550,10 @@
         <v>44414</v>
       </c>
       <c r="B186" s="2">
-        <v>74.61</v>
+        <v>74.62</v>
       </c>
       <c r="C186" s="2">
-        <v>85.73</v>
+        <v>85.71</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2560,10 +2561,10 @@
         <v>44421</v>
       </c>
       <c r="B187" s="2">
-        <v>75</v>
+        <v>75.02</v>
       </c>
       <c r="C187" s="2">
-        <v>85.89</v>
+        <v>85.9</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2571,10 +2572,10 @@
         <v>44428</v>
       </c>
       <c r="B188" s="2">
-        <v>73.569999999999993</v>
+        <v>73.55</v>
       </c>
       <c r="C188" s="2">
-        <v>85.47</v>
+        <v>85.45</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2582,10 +2583,10 @@
         <v>44435</v>
       </c>
       <c r="B189" s="2">
-        <v>74.22</v>
+        <v>74.239999999999995</v>
       </c>
       <c r="C189" s="2">
-        <v>85.3</v>
+        <v>85.29</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2593,10 +2594,10 @@
         <v>44449</v>
       </c>
       <c r="B190" s="2">
-        <v>73.569999999999993</v>
+        <v>73.55</v>
       </c>
       <c r="C190" s="2">
-        <v>84.77</v>
+        <v>84.75</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2604,10 +2605,10 @@
         <v>44456</v>
       </c>
       <c r="B191" s="2">
-        <v>71.88</v>
+        <v>71.86</v>
       </c>
       <c r="C191" s="2">
-        <v>83.74</v>
+        <v>83.69</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2615,10 +2616,10 @@
         <v>44463</v>
       </c>
       <c r="B192" s="2">
-        <v>69.92</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="C192" s="2">
-        <v>82.06</v>
+        <v>82.04</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2626,10 +2627,10 @@
         <v>44469</v>
       </c>
       <c r="B193" s="2">
-        <v>73.239999999999995</v>
+        <v>73.260000000000005</v>
       </c>
       <c r="C193" s="2">
-        <v>78.69</v>
+        <v>78.67</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2637,10 +2638,10 @@
         <v>44477</v>
       </c>
       <c r="B194" s="2">
-        <v>77.52</v>
+        <v>77.540000000000006</v>
       </c>
       <c r="C194" s="2">
-        <v>79.94</v>
+        <v>79.959999999999994</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2648,10 +2649,10 @@
         <v>44484</v>
       </c>
       <c r="B195" s="2">
-        <v>78.069999999999993</v>
+        <v>78.09</v>
       </c>
       <c r="C195" s="2">
-        <v>80.66</v>
+        <v>80.680000000000007</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2659,10 +2660,10 @@
         <v>44491</v>
       </c>
       <c r="B196" s="2">
-        <v>76.55</v>
+        <v>76.47</v>
       </c>
       <c r="C196" s="2">
-        <v>80.05</v>
+        <v>80.03</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2670,10 +2671,10 @@
         <v>44498</v>
       </c>
       <c r="B197" s="2">
-        <v>74.900000000000006</v>
+        <v>74.88</v>
       </c>
       <c r="C197" s="2">
-        <v>78.83</v>
+        <v>78.81</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2681,10 +2682,10 @@
         <v>44505</v>
       </c>
       <c r="B198" s="2">
-        <v>70.900000000000006</v>
+        <v>70.88</v>
       </c>
       <c r="C198" s="2">
-        <v>76.430000000000007</v>
+        <v>76.31</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2692,10 +2693,10 @@
         <v>44512</v>
       </c>
       <c r="B199" s="2">
-        <v>71.59</v>
+        <v>71.61</v>
       </c>
       <c r="C199" s="2">
-        <v>75.72</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2703,10 +2704,10 @@
         <v>44519</v>
       </c>
       <c r="B200" s="2">
-        <v>70.34</v>
+        <v>70.319999999999993</v>
       </c>
       <c r="C200" s="2">
-        <v>75.349999999999994</v>
+        <v>75.33</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2714,10 +2715,10 @@
         <v>44526</v>
       </c>
       <c r="B201" s="2">
-        <v>69.66</v>
+        <v>69.64</v>
       </c>
       <c r="C201" s="2">
-        <v>75.23</v>
+        <v>75.22</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2725,10 +2726,10 @@
         <v>44533</v>
       </c>
       <c r="B202" s="2">
-        <v>69.790000000000006</v>
+        <v>69.8</v>
       </c>
       <c r="C202" s="2">
-        <v>74.8</v>
+        <v>74.78</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2736,10 +2737,10 @@
         <v>44540</v>
       </c>
       <c r="B203" s="2">
-        <v>68.14</v>
+        <v>68.12</v>
       </c>
       <c r="C203" s="2">
-        <v>74.12</v>
+        <v>74.099999999999994</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2747,10 +2748,10 @@
         <v>44547</v>
       </c>
       <c r="B204" s="2">
-        <v>68</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="C204" s="2">
-        <v>74.28</v>
+        <v>74.290000000000006</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2758,7 +2759,7 @@
         <v>44554</v>
       </c>
       <c r="B205" s="2">
-        <v>67.87</v>
+        <v>67.86</v>
       </c>
       <c r="C205" s="2">
         <v>74.33</v>
@@ -2769,10 +2770,10 @@
         <v>44561</v>
       </c>
       <c r="B206" s="2">
-        <v>70.040000000000006</v>
+        <v>70.14</v>
       </c>
       <c r="C206" s="2">
-        <v>75.790000000000006</v>
+        <v>75.81</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2780,10 +2781,10 @@
         <v>44568</v>
       </c>
       <c r="B207" s="2">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="C207" s="2">
-        <v>77.89</v>
+        <v>77.91</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2791,10 +2792,10 @@
         <v>44575</v>
       </c>
       <c r="B208" s="2">
-        <v>75.77</v>
+        <v>75.790000000000006</v>
       </c>
       <c r="C208" s="2">
-        <v>79.89</v>
+        <v>79.91</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2802,10 +2803,10 @@
         <v>44582</v>
       </c>
       <c r="B209" s="2">
-        <v>76.25</v>
+        <v>76.27</v>
       </c>
       <c r="C209" s="2">
-        <v>81.08</v>
+        <v>81.099999999999994</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2813,10 +2814,10 @@
         <v>44589</v>
       </c>
       <c r="B210" s="2">
-        <v>74.86</v>
+        <v>74.84</v>
       </c>
       <c r="C210" s="2">
-        <v>81.510000000000005</v>
+        <v>81.53</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2824,10 +2825,10 @@
         <v>44603</v>
       </c>
       <c r="B211" s="2">
-        <v>68.19</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="C211" s="2">
-        <v>76.569999999999993</v>
+        <v>76.47</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2835,10 +2836,10 @@
         <v>44610</v>
       </c>
       <c r="B212" s="2">
-        <v>69.58</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="C212" s="2">
-        <v>75.44</v>
+        <v>75.42</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2846,10 +2847,10 @@
         <v>44617</v>
       </c>
       <c r="B213" s="2">
-        <v>73.44</v>
+        <v>73.63</v>
       </c>
       <c r="C213" s="2">
-        <v>77.61</v>
+        <v>77.63</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2857,10 +2858,10 @@
         <v>44624</v>
       </c>
       <c r="B214" s="2">
-        <v>74.72</v>
+        <v>74.739999999999995</v>
       </c>
       <c r="C214" s="2">
-        <v>81.489999999999995</v>
+        <v>81.510000000000005</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2868,10 +2869,10 @@
         <v>44631</v>
       </c>
       <c r="B215" s="2">
-        <v>70.849999999999994</v>
+        <v>70.83</v>
       </c>
       <c r="C215" s="2">
-        <v>79.78</v>
+        <v>79.760000000000005</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2879,10 +2880,10 @@
         <v>44638</v>
       </c>
       <c r="B216" s="2">
-        <v>78.91</v>
+        <v>79.010000000000005</v>
       </c>
       <c r="C216" s="2">
-        <v>81.88</v>
+        <v>81.900000000000006</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2890,10 +2891,10 @@
         <v>44645</v>
       </c>
       <c r="B217" s="2">
-        <v>78.209999999999994</v>
+        <v>78.19</v>
       </c>
       <c r="C217" s="2">
-        <v>85.43</v>
+        <v>85.45</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2901,10 +2902,10 @@
         <v>44652</v>
       </c>
       <c r="B218" s="2">
-        <v>77.45</v>
+        <v>77.430000000000007</v>
       </c>
       <c r="C218" s="2">
-        <v>83.76</v>
+        <v>83.74</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -2912,10 +2913,10 @@
         <v>44659</v>
       </c>
       <c r="B219" s="2">
-        <v>79.27</v>
+        <v>79.290000000000006</v>
       </c>
       <c r="C219" s="2">
-        <v>84.95</v>
+        <v>84.97</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -2923,10 +2924,10 @@
         <v>44666</v>
       </c>
       <c r="B220" s="2">
-        <v>80.11</v>
+        <v>80.13</v>
       </c>
       <c r="C220" s="2">
-        <v>86.42</v>
+        <v>86.44</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2934,7 +2935,7 @@
         <v>44673</v>
       </c>
       <c r="B221" s="2">
-        <v>79.8</v>
+        <v>79.78</v>
       </c>
       <c r="C221" s="2">
         <v>86.35</v>
@@ -2945,10 +2946,10 @@
         <v>44680</v>
       </c>
       <c r="B222" s="2">
-        <v>80.930000000000007</v>
+        <v>80.95</v>
       </c>
       <c r="C222" s="2">
-        <v>86.57</v>
+        <v>86.58</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -2956,10 +2957,10 @@
         <v>44687</v>
       </c>
       <c r="B223" s="2">
-        <v>81.91</v>
+        <v>81.93</v>
       </c>
       <c r="C223" s="2">
-        <v>87.75</v>
+        <v>87.77</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2967,10 +2968,10 @@
         <v>44694</v>
       </c>
       <c r="B224" s="2">
-        <v>82.61</v>
+        <v>82.63</v>
       </c>
       <c r="C224" s="2">
-        <v>88.28</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -2978,10 +2979,10 @@
         <v>44701</v>
       </c>
       <c r="B225" s="2">
-        <v>83.01</v>
+        <v>83.03</v>
       </c>
       <c r="C225" s="2">
-        <v>88.66</v>
+        <v>88.68</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2989,10 +2990,10 @@
         <v>44708</v>
       </c>
       <c r="B226" s="2">
-        <v>83.83</v>
+        <v>83.85</v>
       </c>
       <c r="C226" s="2">
-        <v>89.26</v>
+        <v>89.28</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3000,10 +3001,10 @@
         <v>44714</v>
       </c>
       <c r="B227" s="2">
-        <v>83.68</v>
+        <v>83.67</v>
       </c>
       <c r="C227" s="2">
-        <v>89.9</v>
+        <v>89.92</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3011,10 +3012,10 @@
         <v>44722</v>
       </c>
       <c r="B228" s="2">
-        <v>84.11</v>
+        <v>84.13</v>
       </c>
       <c r="C228" s="2">
-        <v>90.14</v>
+        <v>90.15</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3022,7 +3023,7 @@
         <v>44729</v>
       </c>
       <c r="B229" s="2">
-        <v>83.83</v>
+        <v>83.82</v>
       </c>
       <c r="C229" s="2">
         <v>90.15</v>
@@ -3033,10 +3034,10 @@
         <v>44736</v>
       </c>
       <c r="B230" s="2">
-        <v>81.92</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="C230" s="2">
-        <v>88.98</v>
+        <v>88.96</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3044,10 +3045,10 @@
         <v>44743</v>
       </c>
       <c r="B231" s="2">
-        <v>80.790000000000006</v>
+        <v>80.77</v>
       </c>
       <c r="C231" s="2">
-        <v>87.61</v>
+        <v>87.59</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3055,10 +3056,10 @@
         <v>44750</v>
       </c>
       <c r="B232" s="2">
-        <v>78.53</v>
+        <v>78.510000000000005</v>
       </c>
       <c r="C232" s="2">
-        <v>85.71</v>
+        <v>85.69</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3066,10 +3067,10 @@
         <v>44757</v>
       </c>
       <c r="B233" s="2">
-        <v>76.98</v>
+        <v>76.959999999999994</v>
       </c>
       <c r="C233" s="2">
-        <v>84.01</v>
+        <v>83.99</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3077,10 +3078,10 @@
         <v>44764</v>
       </c>
       <c r="B234" s="2">
-        <v>73.16</v>
+        <v>73.14</v>
       </c>
       <c r="C234" s="2">
-        <v>81.400000000000006</v>
+        <v>81.38</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3088,10 +3089,10 @@
         <v>44771</v>
       </c>
       <c r="B235" s="2">
-        <v>71.61</v>
+        <v>71.59</v>
       </c>
       <c r="C235" s="2">
-        <v>79.3</v>
+        <v>79.28</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3099,10 +3100,10 @@
         <v>44778</v>
       </c>
       <c r="B236" s="2">
-        <v>72.7</v>
+        <v>72.72</v>
       </c>
       <c r="C236" s="2">
-        <v>79.599999999999994</v>
+        <v>79.62</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3110,10 +3111,10 @@
         <v>44785</v>
       </c>
       <c r="B237" s="2">
-        <v>76.239999999999995</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="C237" s="2">
-        <v>81.22</v>
+        <v>81.239999999999995</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3121,10 +3122,10 @@
         <v>44792</v>
       </c>
       <c r="B238" s="2">
-        <v>77.900000000000006</v>
+        <v>77.92</v>
       </c>
       <c r="C238" s="2">
-        <v>83.89</v>
+        <v>83.91</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3132,10 +3133,10 @@
         <v>44799</v>
       </c>
       <c r="B239" s="2">
-        <v>80.14</v>
+        <v>80.16</v>
       </c>
       <c r="C239" s="2">
-        <v>85.27</v>
+        <v>85.29</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3143,10 +3144,10 @@
         <v>44806</v>
       </c>
       <c r="B240" s="2">
-        <v>80.849999999999994</v>
+        <v>80.87</v>
       </c>
       <c r="C240" s="2">
-        <v>86.83</v>
+        <v>86.85</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3154,10 +3155,10 @@
         <v>44813</v>
       </c>
       <c r="B241" s="2">
-        <v>81.99</v>
+        <v>82.01</v>
       </c>
       <c r="C241" s="2">
-        <v>87.56</v>
+        <v>87.58</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3165,10 +3166,10 @@
         <v>44820</v>
       </c>
       <c r="B242" s="2">
-        <v>82.41</v>
+        <v>82.43</v>
       </c>
       <c r="C242" s="2">
-        <v>88.32</v>
+        <v>88.35</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3176,10 +3177,10 @@
         <v>44827</v>
       </c>
       <c r="B243" s="2">
-        <v>82.81</v>
+        <v>82.83</v>
       </c>
       <c r="C243" s="2">
-        <v>89.08</v>
+        <v>89.12</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3187,7 +3188,7 @@
         <v>44834</v>
       </c>
       <c r="B244" s="2">
-        <v>82.81</v>
+        <v>82.83</v>
       </c>
       <c r="C244" s="2">
         <v>89.14</v>
@@ -3198,10 +3199,10 @@
         <v>44842</v>
       </c>
       <c r="B245" s="2">
-        <v>83.5</v>
+        <v>83.53</v>
       </c>
       <c r="C245" s="2">
-        <v>88.98</v>
+        <v>88.97</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3209,7 +3210,7 @@
         <v>44848</v>
       </c>
       <c r="B246" s="2">
-        <v>82.62</v>
+        <v>82.6</v>
       </c>
       <c r="C246" s="2">
         <v>89.04</v>
@@ -3220,10 +3221,10 @@
         <v>44855</v>
       </c>
       <c r="B247" s="2">
-        <v>82.05</v>
+        <v>82.02</v>
       </c>
       <c r="C247" s="2">
-        <v>88.26</v>
+        <v>88.24</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3231,10 +3232,10 @@
         <v>44862</v>
       </c>
       <c r="B248" s="2">
-        <v>81.48</v>
+        <v>81.459999999999994</v>
       </c>
       <c r="C248" s="2">
-        <v>87.64</v>
+        <v>87.62</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3242,10 +3243,10 @@
         <v>44869</v>
       </c>
       <c r="B249" s="2">
-        <v>78.77</v>
+        <v>78.75</v>
       </c>
       <c r="C249" s="2">
-        <v>86.31</v>
+        <v>86.29</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3253,10 +3254,10 @@
         <v>44876</v>
       </c>
       <c r="B250" s="2">
-        <v>77.209999999999994</v>
+        <v>77.19</v>
       </c>
       <c r="C250" s="2">
-        <v>84.09</v>
+        <v>84.07</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3264,10 +3265,10 @@
         <v>44883</v>
       </c>
       <c r="B251" s="2">
-        <v>76.349999999999994</v>
+        <v>76.33</v>
       </c>
       <c r="C251" s="2">
-        <v>83.36</v>
+        <v>83.34</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3275,10 +3276,10 @@
         <v>44890</v>
       </c>
       <c r="B252" s="2">
-        <v>77.03</v>
+        <v>77.05</v>
       </c>
       <c r="C252" s="2">
-        <v>82.52</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3286,10 +3287,10 @@
         <v>44897</v>
       </c>
       <c r="B253" s="2">
-        <v>75.61</v>
+        <v>75.59</v>
       </c>
       <c r="C253" s="2">
-        <v>82.62</v>
+        <v>82.63</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3297,10 +3298,10 @@
         <v>44904</v>
       </c>
       <c r="B254" s="2">
-        <v>75.89</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="C254" s="2">
-        <v>82</v>
+        <v>81.98</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3311,7 +3312,7 @@
         <v>75.97</v>
       </c>
       <c r="C255" s="2">
-        <v>82.64</v>
+        <v>82.66</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3322,7 +3323,7 @@
         <v>75.930000000000007</v>
       </c>
       <c r="C256" s="2">
-        <v>82.39</v>
+        <v>82.38</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3330,10 +3331,10 @@
         <v>44925</v>
       </c>
       <c r="B257" s="2">
-        <v>75.209999999999994</v>
+        <v>75.19</v>
       </c>
       <c r="C257" s="2">
-        <v>82.59</v>
+        <v>82.6</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3341,10 +3342,10 @@
         <v>44932</v>
       </c>
       <c r="B258" s="2">
-        <v>74.64</v>
+        <v>74.62</v>
       </c>
       <c r="C258" s="2">
-        <v>81.93</v>
+        <v>81.91</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3352,10 +3353,10 @@
         <v>44939</v>
       </c>
       <c r="B259" s="2">
-        <v>75.680000000000007</v>
+        <v>75.7</v>
       </c>
       <c r="C259" s="2">
-        <v>82.56</v>
+        <v>82.58</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3363,10 +3364,10 @@
         <v>44946</v>
       </c>
       <c r="B260" s="2">
-        <v>75.97</v>
+        <v>75.98</v>
       </c>
       <c r="C260" s="2">
-        <v>83.1</v>
+        <v>83.12</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3374,10 +3375,10 @@
         <v>44953</v>
       </c>
       <c r="B261" s="2">
-        <v>76.69</v>
+        <v>76.709999999999994</v>
       </c>
       <c r="C261" s="2">
-        <v>84.15</v>
+        <v>84.17</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3385,10 +3386,10 @@
         <v>44960</v>
       </c>
       <c r="B262" s="2">
-        <v>77.41</v>
+        <v>77.430000000000007</v>
       </c>
       <c r="C262" s="2">
-        <v>84.32</v>
+        <v>84.33</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3396,10 +3397,10 @@
         <v>44967</v>
       </c>
       <c r="B263" s="2">
-        <v>78.42</v>
+        <v>78.44</v>
       </c>
       <c r="C263" s="2">
-        <v>84.93</v>
+        <v>84.96</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3407,10 +3408,10 @@
         <v>44974</v>
       </c>
       <c r="B264" s="2">
-        <v>79.540000000000006</v>
+        <v>79.56</v>
       </c>
       <c r="C264" s="2">
-        <v>85.75</v>
+        <v>85.77</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3418,10 +3419,10 @@
         <v>44981</v>
       </c>
       <c r="B265" s="2">
-        <v>80.98</v>
+        <v>81</v>
       </c>
       <c r="C265" s="2">
-        <v>86.97</v>
+        <v>86.99</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3432,7 +3433,7 @@
         <v>81.069999999999993</v>
       </c>
       <c r="C266" s="2">
-        <v>87.15</v>
+        <v>87.16</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3440,10 +3441,10 @@
         <v>44995</v>
       </c>
       <c r="B267" s="2">
-        <v>82</v>
+        <v>82.02</v>
       </c>
       <c r="C267" s="2">
-        <v>88.03</v>
+        <v>88.05</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3451,10 +3452,10 @@
         <v>45002</v>
       </c>
       <c r="B268" s="2">
-        <v>82.29</v>
+        <v>82.3</v>
       </c>
       <c r="C268" s="2">
-        <v>88.44</v>
+        <v>88.46</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3462,10 +3463,10 @@
         <v>45009</v>
       </c>
       <c r="B269" s="2">
-        <v>82.73</v>
+        <v>82.75</v>
       </c>
       <c r="C269" s="2">
-        <v>89.28</v>
+        <v>89.32</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3473,10 +3474,10 @@
         <v>45016</v>
       </c>
       <c r="B270" s="2">
-        <v>83.87</v>
+        <v>83.89</v>
       </c>
       <c r="C270" s="2">
-        <v>90.56</v>
+        <v>90.58</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3484,10 +3485,10 @@
         <v>45023</v>
       </c>
       <c r="B271" s="2">
-        <v>84.3</v>
+        <v>84.32</v>
       </c>
       <c r="C271" s="2">
-        <v>91.2</v>
+        <v>91.23</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3495,10 +3496,10 @@
         <v>45030</v>
       </c>
       <c r="B272" s="2">
-        <v>84.74</v>
+        <v>84.76</v>
       </c>
       <c r="C272" s="2">
-        <v>91.8</v>
+        <v>91.83</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3506,10 +3507,10 @@
         <v>45037</v>
       </c>
       <c r="B273" s="2">
-        <v>84.59</v>
+        <v>84.58</v>
       </c>
       <c r="C273" s="2">
-        <v>91.5</v>
+        <v>91.49</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3517,10 +3518,10 @@
         <v>45044</v>
       </c>
       <c r="B274" s="2">
-        <v>82.56</v>
+        <v>82.54</v>
       </c>
       <c r="C274" s="2">
-        <v>90.63</v>
+        <v>90.61</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3528,10 +3529,10 @@
         <v>45051</v>
       </c>
       <c r="B275" s="2">
-        <v>81.69</v>
+        <v>81.67</v>
       </c>
       <c r="C275" s="2">
-        <v>89.49</v>
+        <v>89.47</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3539,10 +3540,10 @@
         <v>45058</v>
       </c>
       <c r="B276" s="2">
-        <v>81.099999999999994</v>
+        <v>81.069999999999993</v>
       </c>
       <c r="C276" s="2">
-        <v>89.03</v>
+        <v>89.01</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3550,7 +3551,7 @@
         <v>45065</v>
       </c>
       <c r="B277" s="2">
-        <v>82.36</v>
+        <v>82.38</v>
       </c>
       <c r="C277" s="2">
         <v>89.12</v>
@@ -3561,10 +3562,10 @@
         <v>45072</v>
       </c>
       <c r="B278" s="2">
-        <v>82.36</v>
+        <v>82.38</v>
       </c>
       <c r="C278" s="2">
-        <v>89.93</v>
+        <v>89.95</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3572,10 +3573,10 @@
         <v>45079</v>
       </c>
       <c r="B279" s="2">
-        <v>82.36</v>
+        <v>82.38</v>
       </c>
       <c r="C279" s="2">
-        <v>89.66</v>
+        <v>89.65</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3583,7 +3584,7 @@
         <v>45086</v>
       </c>
       <c r="B280" s="2">
-        <v>82.36</v>
+        <v>82.38</v>
       </c>
       <c r="C280" s="2">
         <v>89.67</v>
@@ -3594,10 +3595,10 @@
         <v>45093</v>
       </c>
       <c r="B281" s="2">
-        <v>83.09</v>
+        <v>83.11</v>
       </c>
       <c r="C281" s="2">
-        <v>90.32</v>
+        <v>90.35</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3605,10 +3606,10 @@
         <v>45100</v>
       </c>
       <c r="B282" s="2">
-        <v>84.09</v>
+        <v>84.11</v>
       </c>
       <c r="C282" s="2">
-        <v>91.6</v>
+        <v>91.66</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3616,10 +3617,10 @@
         <v>45107</v>
       </c>
       <c r="B283" s="2">
-        <v>84.09</v>
+        <v>84.11</v>
       </c>
       <c r="C283" s="2">
-        <v>91.98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3627,10 +3628,208 @@
         <v>45114</v>
       </c>
       <c r="B284" s="2">
-        <v>84.48</v>
+        <v>84.5</v>
       </c>
       <c r="C284" s="2">
-        <v>92.11</v>
+        <v>92.12</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="5">
+        <v>45121</v>
+      </c>
+      <c r="B285" s="2">
+        <v>84.32</v>
+      </c>
+      <c r="C285" s="2">
+        <v>91.18</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="5">
+        <v>45128</v>
+      </c>
+      <c r="B286" s="2">
+        <v>83.58</v>
+      </c>
+      <c r="C286" s="2">
+        <v>91.16</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="5">
+        <v>45135</v>
+      </c>
+      <c r="B287" s="2">
+        <v>82.12</v>
+      </c>
+      <c r="C287" s="2">
+        <v>89.79</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="5">
+        <v>45142</v>
+      </c>
+      <c r="B288" s="2">
+        <v>83.38</v>
+      </c>
+      <c r="C288" s="2">
+        <v>90.06</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="5">
+        <v>45149</v>
+      </c>
+      <c r="B289" s="2">
+        <v>83.82</v>
+      </c>
+      <c r="C289" s="2">
+        <v>91.06</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="5">
+        <v>45156</v>
+      </c>
+      <c r="B290" s="2">
+        <v>84.1</v>
+      </c>
+      <c r="C290" s="2">
+        <v>91.81</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="5">
+        <v>45163</v>
+      </c>
+      <c r="B291" s="2">
+        <v>83.34</v>
+      </c>
+      <c r="C291" s="2">
+        <v>91.77</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="5">
+        <v>45170</v>
+      </c>
+      <c r="B292" s="2">
+        <v>84.11</v>
+      </c>
+      <c r="C292" s="2">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="5">
+        <v>45177</v>
+      </c>
+      <c r="B293" s="2">
+        <v>84.41</v>
+      </c>
+      <c r="C293" s="2">
+        <v>92.78</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="5">
+        <v>45184</v>
+      </c>
+      <c r="B294" s="2">
+        <v>84.05</v>
+      </c>
+      <c r="C294" s="2">
+        <v>92.64</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="5">
+        <v>45191</v>
+      </c>
+      <c r="B295" s="2">
+        <v>84.47</v>
+      </c>
+      <c r="C295" s="2">
+        <v>93.03</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="5">
+        <v>45197</v>
+      </c>
+      <c r="B296" s="2">
+        <v>84.15</v>
+      </c>
+      <c r="C296" s="2">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="5">
+        <v>45206</v>
+      </c>
+      <c r="B297" s="2">
+        <v>83.39</v>
+      </c>
+      <c r="C297" s="2">
+        <v>92.29</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="5">
+        <v>45212</v>
+      </c>
+      <c r="B298" s="2">
+        <v>82.18</v>
+      </c>
+      <c r="C298" s="2">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="5">
+        <v>45219</v>
+      </c>
+      <c r="B299" s="2">
+        <v>82.36</v>
+      </c>
+      <c r="C299" s="2">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="5">
+        <v>45226</v>
+      </c>
+      <c r="B300" s="2">
+        <v>82.51</v>
+      </c>
+      <c r="C300" s="2">
+        <v>90.75</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="5">
+        <v>45233</v>
+      </c>
+      <c r="B301" s="2">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="C301" s="2">
+        <v>90.21</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="5">
+        <v>45240</v>
+      </c>
+      <c r="B302" s="2">
+        <v>81.03</v>
+      </c>
+      <c r="C302" s="2">
+        <v>89.21</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A240E09-F980-4034-94A4-C1AC458346D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A944B34F-CBE5-400E-B2B8-E6091404DF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="19245" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Blast Furnace Starting R" sheetId="1" r:id="rId1"/>
@@ -98,13 +98,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2018-03-02:2023-11-10</t>
-  </si>
-  <si>
     <t>Wind</t>
   </si>
   <si>
-    <t>2023-11-10</t>
+    <t>2018-03-02:2023-12-08</t>
+  </si>
+  <si>
+    <t>2023-12-08</t>
   </si>
 </sst>
 </file>
@@ -159,14 +159,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,9 +505,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C302"/>
+  <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -518,88 +518,88 @@
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>error!</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>43161</v>
       </c>
       <c r="B9" s="2">
@@ -610,7 +610,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>43168</v>
       </c>
       <c r="B10" s="2">
@@ -621,7 +621,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>43175</v>
       </c>
       <c r="B11" s="2">
@@ -632,7 +632,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>43182</v>
       </c>
       <c r="B12" s="2">
@@ -643,7 +643,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>43189</v>
       </c>
       <c r="B13" s="2">
@@ -654,7 +654,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>43199</v>
       </c>
       <c r="B14" s="2">
@@ -665,7 +665,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>43203</v>
       </c>
       <c r="B15" s="2">
@@ -676,7 +676,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>43210</v>
       </c>
       <c r="B16" s="2">
@@ -687,7 +687,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>43217</v>
       </c>
       <c r="B17" s="2">
@@ -698,7 +698,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>43224</v>
       </c>
       <c r="B18" s="2">
@@ -709,7 +709,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>43231</v>
       </c>
       <c r="B19" s="2">
@@ -720,7 +720,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>43238</v>
       </c>
       <c r="B20" s="2">
@@ -731,7 +731,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>43245</v>
       </c>
       <c r="B21" s="2">
@@ -742,7 +742,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>43252</v>
       </c>
       <c r="B22" s="2">
@@ -753,7 +753,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>43259</v>
       </c>
       <c r="B23" s="2">
@@ -764,7 +764,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>43266</v>
       </c>
       <c r="B24" s="2">
@@ -775,7 +775,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>43273</v>
       </c>
       <c r="B25" s="2">
@@ -786,7 +786,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>43280</v>
       </c>
       <c r="B26" s="2">
@@ -797,7 +797,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>43287</v>
       </c>
       <c r="B27" s="2">
@@ -808,7 +808,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>43294</v>
       </c>
       <c r="B28" s="2">
@@ -819,7 +819,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>43301</v>
       </c>
       <c r="B29" s="2">
@@ -830,7 +830,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>43308</v>
       </c>
       <c r="B30" s="2">
@@ -841,7 +841,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>43315</v>
       </c>
       <c r="B31" s="2">
@@ -852,7 +852,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>43322</v>
       </c>
       <c r="B32" s="2">
@@ -863,7 +863,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>43329</v>
       </c>
       <c r="B33" s="2">
@@ -874,7 +874,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>43336</v>
       </c>
       <c r="B34" s="2">
@@ -885,7 +885,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>43343</v>
       </c>
       <c r="B35" s="2">
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>43350</v>
       </c>
       <c r="B36" s="2">
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>43357</v>
       </c>
       <c r="B37" s="2">
@@ -918,7 +918,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>43364</v>
       </c>
       <c r="B38" s="2">
@@ -929,7 +929,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>43371</v>
       </c>
       <c r="B39" s="2">
@@ -940,7 +940,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>43378</v>
       </c>
       <c r="B40" s="2">
@@ -951,7 +951,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>43385</v>
       </c>
       <c r="B41" s="2">
@@ -962,7 +962,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>43392</v>
       </c>
       <c r="B42" s="2">
@@ -973,7 +973,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>43399</v>
       </c>
       <c r="B43" s="2">
@@ -984,7 +984,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>43406</v>
       </c>
       <c r="B44" s="2">
@@ -995,7 +995,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>43413</v>
       </c>
       <c r="B45" s="2">
@@ -1006,7 +1006,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>43420</v>
       </c>
       <c r="B46" s="2">
@@ -1017,7 +1017,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>43427</v>
       </c>
       <c r="B47" s="2">
@@ -1028,7 +1028,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>43434</v>
       </c>
       <c r="B48" s="2">
@@ -1039,7 +1039,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>43441</v>
       </c>
       <c r="B49" s="2">
@@ -1050,7 +1050,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>43448</v>
       </c>
       <c r="B50" s="2">
@@ -1061,7 +1061,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>43455</v>
       </c>
       <c r="B51" s="2">
@@ -1072,7 +1072,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>43462</v>
       </c>
       <c r="B52" s="2">
@@ -1083,7 +1083,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>43469</v>
       </c>
       <c r="B53" s="2">
@@ -1094,7 +1094,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>43476</v>
       </c>
       <c r="B54" s="2">
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>43483</v>
       </c>
       <c r="B55" s="2">
@@ -1116,7 +1116,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="5">
+      <c r="A56" s="3">
         <v>43490</v>
       </c>
       <c r="B56" s="2">
@@ -1127,7 +1127,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="5">
+      <c r="A57" s="3">
         <v>43497</v>
       </c>
       <c r="B57" s="2">
@@ -1138,7 +1138,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="5">
+      <c r="A58" s="3">
         <v>43507</v>
       </c>
       <c r="B58" s="2">
@@ -1149,7 +1149,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="5">
+      <c r="A59" s="3">
         <v>43511</v>
       </c>
       <c r="B59" s="2">
@@ -1160,7 +1160,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="5">
+      <c r="A60" s="3">
         <v>43518</v>
       </c>
       <c r="B60" s="2">
@@ -1171,7 +1171,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="5">
+      <c r="A61" s="3">
         <v>43525</v>
       </c>
       <c r="B61" s="2">
@@ -1182,7 +1182,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="5">
+      <c r="A62" s="3">
         <v>43532</v>
       </c>
       <c r="B62" s="2">
@@ -1193,7 +1193,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="5">
+      <c r="A63" s="3">
         <v>43539</v>
       </c>
       <c r="B63" s="2">
@@ -1204,7 +1204,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="5">
+      <c r="A64" s="3">
         <v>43546</v>
       </c>
       <c r="B64" s="2">
@@ -1215,7 +1215,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="5">
+      <c r="A65" s="3">
         <v>43553</v>
       </c>
       <c r="B65" s="2">
@@ -1226,7 +1226,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="5">
+      <c r="A66" s="3">
         <v>43559</v>
       </c>
       <c r="B66" s="2">
@@ -1237,7 +1237,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="5">
+      <c r="A67" s="3">
         <v>43567</v>
       </c>
       <c r="B67" s="2">
@@ -1248,7 +1248,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="5">
+      <c r="A68" s="3">
         <v>43574</v>
       </c>
       <c r="B68" s="2">
@@ -1259,7 +1259,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="5">
+      <c r="A69" s="3">
         <v>43581</v>
       </c>
       <c r="B69" s="2">
@@ -1270,7 +1270,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="5">
+      <c r="A70" s="3">
         <v>43590</v>
       </c>
       <c r="B70" s="2">
@@ -1281,7 +1281,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="5">
+      <c r="A71" s="3">
         <v>43595</v>
       </c>
       <c r="B71" s="2">
@@ -1292,7 +1292,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="5">
+      <c r="A72" s="3">
         <v>43602</v>
       </c>
       <c r="B72" s="2">
@@ -1303,7 +1303,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="5">
+      <c r="A73" s="3">
         <v>43609</v>
       </c>
       <c r="B73" s="2">
@@ -1314,7 +1314,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="5">
+      <c r="A74" s="3">
         <v>43616</v>
       </c>
       <c r="B74" s="2">
@@ -1325,7 +1325,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="5">
+      <c r="A75" s="3">
         <v>43622</v>
       </c>
       <c r="B75" s="2">
@@ -1336,7 +1336,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="5">
+      <c r="A76" s="3">
         <v>43630</v>
       </c>
       <c r="B76" s="2">
@@ -1347,7 +1347,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="5">
+      <c r="A77" s="3">
         <v>43637</v>
       </c>
       <c r="B77" s="2">
@@ -1358,7 +1358,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="5">
+      <c r="A78" s="3">
         <v>43644</v>
       </c>
       <c r="B78" s="2">
@@ -1369,7 +1369,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="5">
+      <c r="A79" s="3">
         <v>43651</v>
       </c>
       <c r="B79" s="2">
@@ -1380,7 +1380,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="5">
+      <c r="A80" s="3">
         <v>43658</v>
       </c>
       <c r="B80" s="2">
@@ -1391,7 +1391,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="5">
+      <c r="A81" s="3">
         <v>43665</v>
       </c>
       <c r="B81" s="2">
@@ -1402,7 +1402,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="5">
+      <c r="A82" s="3">
         <v>43672</v>
       </c>
       <c r="B82" s="2">
@@ -1413,7 +1413,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="5">
+      <c r="A83" s="3">
         <v>43679</v>
       </c>
       <c r="B83" s="2">
@@ -1424,7 +1424,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="5">
+      <c r="A84" s="3">
         <v>43686</v>
       </c>
       <c r="B84" s="2">
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="5">
+      <c r="A85" s="3">
         <v>43693</v>
       </c>
       <c r="B85" s="2">
@@ -1446,7 +1446,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="5">
+      <c r="A86" s="3">
         <v>43700</v>
       </c>
       <c r="B86" s="2">
@@ -1457,7 +1457,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="5">
+      <c r="A87" s="3">
         <v>43707</v>
       </c>
       <c r="B87" s="2">
@@ -1468,7 +1468,7 @@
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="5">
+      <c r="A88" s="3">
         <v>43714</v>
       </c>
       <c r="B88" s="2">
@@ -1479,7 +1479,7 @@
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="5">
+      <c r="A89" s="3">
         <v>43720</v>
       </c>
       <c r="B89" s="2">
@@ -1490,7 +1490,7 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="5">
+      <c r="A90" s="3">
         <v>43728</v>
       </c>
       <c r="B90" s="2">
@@ -1501,7 +1501,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="5">
+      <c r="A91" s="3">
         <v>43735</v>
       </c>
       <c r="B91" s="2">
@@ -1512,7 +1512,7 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="5">
+      <c r="A92" s="3">
         <v>43742</v>
       </c>
       <c r="B92" s="2">
@@ -1523,7 +1523,7 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="5">
+      <c r="A93" s="3">
         <v>43749</v>
       </c>
       <c r="B93" s="2">
@@ -1534,7 +1534,7 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="5">
+      <c r="A94" s="3">
         <v>43756</v>
       </c>
       <c r="B94" s="2">
@@ -1545,7 +1545,7 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="5">
+      <c r="A95" s="3">
         <v>43763</v>
       </c>
       <c r="B95" s="2">
@@ -1556,7 +1556,7 @@
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="5">
+      <c r="A96" s="3">
         <v>43770</v>
       </c>
       <c r="B96" s="2">
@@ -1567,7 +1567,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="5">
+      <c r="A97" s="3">
         <v>43777</v>
       </c>
       <c r="B97" s="2">
@@ -1578,7 +1578,7 @@
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="5">
+      <c r="A98" s="3">
         <v>43784</v>
       </c>
       <c r="B98" s="2">
@@ -1589,7 +1589,7 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="5">
+      <c r="A99" s="3">
         <v>43791</v>
       </c>
       <c r="B99" s="2">
@@ -1600,7 +1600,7 @@
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="5">
+      <c r="A100" s="3">
         <v>43798</v>
       </c>
       <c r="B100" s="2">
@@ -1611,7 +1611,7 @@
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="5">
+      <c r="A101" s="3">
         <v>43805</v>
       </c>
       <c r="B101" s="2">
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="5">
+      <c r="A102" s="3">
         <v>43812</v>
       </c>
       <c r="B102" s="2">
@@ -1633,7 +1633,7 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="5">
+      <c r="A103" s="3">
         <v>43819</v>
       </c>
       <c r="B103" s="2">
@@ -1644,7 +1644,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="5">
+      <c r="A104" s="3">
         <v>43826</v>
       </c>
       <c r="B104" s="2">
@@ -1655,7 +1655,7 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="5">
+      <c r="A105" s="3">
         <v>43833</v>
       </c>
       <c r="B105" s="2">
@@ -1666,7 +1666,7 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="5">
+      <c r="A106" s="3">
         <v>43840</v>
       </c>
       <c r="B106" s="2">
@@ -1677,7 +1677,7 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="5">
+      <c r="A107" s="3">
         <v>43847</v>
       </c>
       <c r="B107" s="2">
@@ -1688,7 +1688,7 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="5">
+      <c r="A108" s="3">
         <v>43853</v>
       </c>
       <c r="B108" s="2">
@@ -1699,7 +1699,7 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="5">
+      <c r="A109" s="3">
         <v>43868</v>
       </c>
       <c r="B109" s="2">
@@ -1710,7 +1710,7 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="5">
+      <c r="A110" s="3">
         <v>43875</v>
       </c>
       <c r="B110" s="2">
@@ -1721,7 +1721,7 @@
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="5">
+      <c r="A111" s="3">
         <v>43882</v>
       </c>
       <c r="B111" s="2">
@@ -1732,7 +1732,7 @@
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="5">
+      <c r="A112" s="3">
         <v>43889</v>
       </c>
       <c r="B112" s="2">
@@ -1743,7 +1743,7 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="5">
+      <c r="A113" s="3">
         <v>43896</v>
       </c>
       <c r="B113" s="2">
@@ -1754,7 +1754,7 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="5">
+      <c r="A114" s="3">
         <v>43903</v>
       </c>
       <c r="B114" s="2">
@@ -1765,7 +1765,7 @@
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="5">
+      <c r="A115" s="3">
         <v>43910</v>
       </c>
       <c r="B115" s="2">
@@ -1776,7 +1776,7 @@
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="5">
+      <c r="A116" s="3">
         <v>43917</v>
       </c>
       <c r="B116" s="2">
@@ -1787,7 +1787,7 @@
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="5">
+      <c r="A117" s="3">
         <v>43924</v>
       </c>
       <c r="B117" s="2">
@@ -1798,7 +1798,7 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="5">
+      <c r="A118" s="3">
         <v>43931</v>
       </c>
       <c r="B118" s="2">
@@ -1809,7 +1809,7 @@
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="5">
+      <c r="A119" s="3">
         <v>43938</v>
       </c>
       <c r="B119" s="2">
@@ -1820,7 +1820,7 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="5">
+      <c r="A120" s="3">
         <v>43945</v>
       </c>
       <c r="B120" s="2">
@@ -1831,7 +1831,7 @@
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="5">
+      <c r="A121" s="3">
         <v>43951</v>
       </c>
       <c r="B121" s="2">
@@ -1842,7 +1842,7 @@
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="5">
+      <c r="A122" s="3">
         <v>43959</v>
       </c>
       <c r="B122" s="2">
@@ -1853,7 +1853,7 @@
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="5">
+      <c r="A123" s="3">
         <v>43966</v>
       </c>
       <c r="B123" s="2">
@@ -1864,7 +1864,7 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="5">
+      <c r="A124" s="3">
         <v>43973</v>
       </c>
       <c r="B124" s="2">
@@ -1875,7 +1875,7 @@
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="5">
+      <c r="A125" s="3">
         <v>43980</v>
       </c>
       <c r="B125" s="2">
@@ -1886,7 +1886,7 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="5">
+      <c r="A126" s="3">
         <v>43987</v>
       </c>
       <c r="B126" s="2">
@@ -1897,7 +1897,7 @@
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="5">
+      <c r="A127" s="3">
         <v>43994</v>
       </c>
       <c r="B127" s="2">
@@ -1908,7 +1908,7 @@
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="5">
+      <c r="A128" s="3">
         <v>44001</v>
       </c>
       <c r="B128" s="2">
@@ -1919,7 +1919,7 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="5">
+      <c r="A129" s="3">
         <v>44008</v>
       </c>
       <c r="B129" s="2">
@@ -1930,7 +1930,7 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="5">
+      <c r="A130" s="3">
         <v>44015</v>
       </c>
       <c r="B130" s="2">
@@ -1941,7 +1941,7 @@
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="5">
+      <c r="A131" s="3">
         <v>44022</v>
       </c>
       <c r="B131" s="2">
@@ -1952,7 +1952,7 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="5">
+      <c r="A132" s="3">
         <v>44029</v>
       </c>
       <c r="B132" s="2">
@@ -1963,7 +1963,7 @@
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="5">
+      <c r="A133" s="3">
         <v>44036</v>
       </c>
       <c r="B133" s="2">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="5">
+      <c r="A134" s="3">
         <v>44043</v>
       </c>
       <c r="B134" s="2">
@@ -1985,7 +1985,7 @@
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="5">
+      <c r="A135" s="3">
         <v>44050</v>
       </c>
       <c r="B135" s="2">
@@ -1996,7 +1996,7 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="5">
+      <c r="A136" s="3">
         <v>44057</v>
       </c>
       <c r="B136" s="2">
@@ -2007,7 +2007,7 @@
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="5">
+      <c r="A137" s="3">
         <v>44064</v>
       </c>
       <c r="B137" s="2">
@@ -2018,7 +2018,7 @@
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="5">
+      <c r="A138" s="3">
         <v>44071</v>
       </c>
       <c r="B138" s="2">
@@ -2029,7 +2029,7 @@
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="5">
+      <c r="A139" s="3">
         <v>44078</v>
       </c>
       <c r="B139" s="2">
@@ -2040,7 +2040,7 @@
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="5">
+      <c r="A140" s="3">
         <v>44085</v>
       </c>
       <c r="B140" s="2">
@@ -2051,7 +2051,7 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="5">
+      <c r="A141" s="3">
         <v>44092</v>
       </c>
       <c r="B141" s="2">
@@ -2062,7 +2062,7 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="5">
+      <c r="A142" s="3">
         <v>44099</v>
       </c>
       <c r="B142" s="2">
@@ -2073,7 +2073,7 @@
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="5">
+      <c r="A143" s="3">
         <v>44104</v>
       </c>
       <c r="B143" s="2">
@@ -2084,7 +2084,7 @@
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="5">
+      <c r="A144" s="3">
         <v>44113</v>
       </c>
       <c r="B144" s="2">
@@ -2095,7 +2095,7 @@
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="5">
+      <c r="A145" s="3">
         <v>44120</v>
       </c>
       <c r="B145" s="2">
@@ -2106,7 +2106,7 @@
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="5">
+      <c r="A146" s="3">
         <v>44127</v>
       </c>
       <c r="B146" s="2">
@@ -2117,7 +2117,7 @@
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="5">
+      <c r="A147" s="3">
         <v>44134</v>
       </c>
       <c r="B147" s="2">
@@ -2128,7 +2128,7 @@
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="5">
+      <c r="A148" s="3">
         <v>44141</v>
       </c>
       <c r="B148" s="2">
@@ -2139,7 +2139,7 @@
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="5">
+      <c r="A149" s="3">
         <v>44148</v>
       </c>
       <c r="B149" s="2">
@@ -2150,7 +2150,7 @@
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="5">
+      <c r="A150" s="3">
         <v>44155</v>
       </c>
       <c r="B150" s="2">
@@ -2161,7 +2161,7 @@
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="5">
+      <c r="A151" s="3">
         <v>44162</v>
       </c>
       <c r="B151" s="2">
@@ -2172,7 +2172,7 @@
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="5">
+      <c r="A152" s="3">
         <v>44169</v>
       </c>
       <c r="B152" s="2">
@@ -2183,7 +2183,7 @@
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="5">
+      <c r="A153" s="3">
         <v>44176</v>
       </c>
       <c r="B153" s="2">
@@ -2194,7 +2194,7 @@
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="5">
+      <c r="A154" s="3">
         <v>44183</v>
       </c>
       <c r="B154" s="2">
@@ -2205,7 +2205,7 @@
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="5">
+      <c r="A155" s="3">
         <v>44190</v>
       </c>
       <c r="B155" s="2">
@@ -2216,7 +2216,7 @@
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="5">
+      <c r="A156" s="3">
         <v>44196</v>
       </c>
       <c r="B156" s="2">
@@ -2227,7 +2227,7 @@
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="5">
+      <c r="A157" s="3">
         <v>44204</v>
       </c>
       <c r="B157" s="2">
@@ -2238,7 +2238,7 @@
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="5">
+      <c r="A158" s="3">
         <v>44211</v>
       </c>
       <c r="B158" s="2">
@@ -2249,7 +2249,7 @@
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="5">
+      <c r="A159" s="3">
         <v>44218</v>
       </c>
       <c r="B159" s="2">
@@ -2260,7 +2260,7 @@
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="5">
+      <c r="A160" s="3">
         <v>44225</v>
       </c>
       <c r="B160" s="2">
@@ -2271,7 +2271,7 @@
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="5">
+      <c r="A161" s="3">
         <v>44232</v>
       </c>
       <c r="B161" s="2">
@@ -2282,7 +2282,7 @@
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="5">
+      <c r="A162" s="3">
         <v>44246</v>
       </c>
       <c r="B162" s="2">
@@ -2293,7 +2293,7 @@
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="5">
+      <c r="A163" s="3">
         <v>44253</v>
       </c>
       <c r="B163" s="2">
@@ -2304,7 +2304,7 @@
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="5">
+      <c r="A164" s="3">
         <v>44260</v>
       </c>
       <c r="B164" s="2">
@@ -2315,7 +2315,7 @@
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="5">
+      <c r="A165" s="3">
         <v>44267</v>
       </c>
       <c r="B165" s="2">
@@ -2326,7 +2326,7 @@
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="5">
+      <c r="A166" s="3">
         <v>44274</v>
       </c>
       <c r="B166" s="2">
@@ -2337,7 +2337,7 @@
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="5">
+      <c r="A167" s="3">
         <v>44281</v>
       </c>
       <c r="B167" s="2">
@@ -2348,7 +2348,7 @@
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="5">
+      <c r="A168" s="3">
         <v>44288</v>
       </c>
       <c r="B168" s="2">
@@ -2359,7 +2359,7 @@
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="5">
+      <c r="A169" s="3">
         <v>44295</v>
       </c>
       <c r="B169" s="2">
@@ -2370,7 +2370,7 @@
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="5">
+      <c r="A170" s="3">
         <v>44302</v>
       </c>
       <c r="B170" s="2">
@@ -2381,7 +2381,7 @@
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="5">
+      <c r="A171" s="3">
         <v>44309</v>
       </c>
       <c r="B171" s="2">
@@ -2392,7 +2392,7 @@
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="5">
+      <c r="A172" s="3">
         <v>44316</v>
       </c>
       <c r="B172" s="2">
@@ -2403,7 +2403,7 @@
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="5">
+      <c r="A173" s="3">
         <v>44323</v>
       </c>
       <c r="B173" s="2">
@@ -2414,7 +2414,7 @@
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="5">
+      <c r="A174" s="3">
         <v>44330</v>
       </c>
       <c r="B174" s="2">
@@ -2425,7 +2425,7 @@
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="5">
+      <c r="A175" s="3">
         <v>44337</v>
       </c>
       <c r="B175" s="2">
@@ -2436,7 +2436,7 @@
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="5">
+      <c r="A176" s="3">
         <v>44344</v>
       </c>
       <c r="B176" s="2">
@@ -2447,7 +2447,7 @@
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="5">
+      <c r="A177" s="3">
         <v>44351</v>
       </c>
       <c r="B177" s="2">
@@ -2458,7 +2458,7 @@
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="5">
+      <c r="A178" s="3">
         <v>44358</v>
       </c>
       <c r="B178" s="2">
@@ -2469,7 +2469,7 @@
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="5">
+      <c r="A179" s="3">
         <v>44365</v>
       </c>
       <c r="B179" s="2">
@@ -2480,7 +2480,7 @@
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="5">
+      <c r="A180" s="3">
         <v>44372</v>
       </c>
       <c r="B180" s="2">
@@ -2491,7 +2491,7 @@
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="5">
+      <c r="A181" s="3">
         <v>44379</v>
       </c>
       <c r="B181" s="2">
@@ -2502,7 +2502,7 @@
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="5">
+      <c r="A182" s="3">
         <v>44386</v>
       </c>
       <c r="B182" s="2">
@@ -2513,7 +2513,7 @@
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="5">
+      <c r="A183" s="3">
         <v>44393</v>
       </c>
       <c r="B183" s="2">
@@ -2524,7 +2524,7 @@
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="5">
+      <c r="A184" s="3">
         <v>44400</v>
       </c>
       <c r="B184" s="2">
@@ -2535,7 +2535,7 @@
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="5">
+      <c r="A185" s="3">
         <v>44407</v>
       </c>
       <c r="B185" s="2">
@@ -2546,7 +2546,7 @@
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="5">
+      <c r="A186" s="3">
         <v>44414</v>
       </c>
       <c r="B186" s="2">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="5">
+      <c r="A187" s="3">
         <v>44421</v>
       </c>
       <c r="B187" s="2">
@@ -2568,7 +2568,7 @@
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="5">
+      <c r="A188" s="3">
         <v>44428</v>
       </c>
       <c r="B188" s="2">
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="5">
+      <c r="A189" s="3">
         <v>44435</v>
       </c>
       <c r="B189" s="2">
@@ -2590,7 +2590,7 @@
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="5">
+      <c r="A190" s="3">
         <v>44449</v>
       </c>
       <c r="B190" s="2">
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="5">
+      <c r="A191" s="3">
         <v>44456</v>
       </c>
       <c r="B191" s="2">
@@ -2612,7 +2612,7 @@
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="5">
+      <c r="A192" s="3">
         <v>44463</v>
       </c>
       <c r="B192" s="2">
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="5">
+      <c r="A193" s="3">
         <v>44469</v>
       </c>
       <c r="B193" s="2">
@@ -2634,7 +2634,7 @@
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="5">
+      <c r="A194" s="3">
         <v>44477</v>
       </c>
       <c r="B194" s="2">
@@ -2645,7 +2645,7 @@
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="5">
+      <c r="A195" s="3">
         <v>44484</v>
       </c>
       <c r="B195" s="2">
@@ -2656,7 +2656,7 @@
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="5">
+      <c r="A196" s="3">
         <v>44491</v>
       </c>
       <c r="B196" s="2">
@@ -2667,7 +2667,7 @@
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="5">
+      <c r="A197" s="3">
         <v>44498</v>
       </c>
       <c r="B197" s="2">
@@ -2678,7 +2678,7 @@
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="5">
+      <c r="A198" s="3">
         <v>44505</v>
       </c>
       <c r="B198" s="2">
@@ -2689,7 +2689,7 @@
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="5">
+      <c r="A199" s="3">
         <v>44512</v>
       </c>
       <c r="B199" s="2">
@@ -2700,7 +2700,7 @@
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="5">
+      <c r="A200" s="3">
         <v>44519</v>
       </c>
       <c r="B200" s="2">
@@ -2711,7 +2711,7 @@
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="5">
+      <c r="A201" s="3">
         <v>44526</v>
       </c>
       <c r="B201" s="2">
@@ -2722,7 +2722,7 @@
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="5">
+      <c r="A202" s="3">
         <v>44533</v>
       </c>
       <c r="B202" s="2">
@@ -2733,7 +2733,7 @@
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="5">
+      <c r="A203" s="3">
         <v>44540</v>
       </c>
       <c r="B203" s="2">
@@ -2744,7 +2744,7 @@
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="5">
+      <c r="A204" s="3">
         <v>44547</v>
       </c>
       <c r="B204" s="2">
@@ -2755,7 +2755,7 @@
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="5">
+      <c r="A205" s="3">
         <v>44554</v>
       </c>
       <c r="B205" s="2">
@@ -2766,7 +2766,7 @@
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="5">
+      <c r="A206" s="3">
         <v>44561</v>
       </c>
       <c r="B206" s="2">
@@ -2777,7 +2777,7 @@
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="5">
+      <c r="A207" s="3">
         <v>44568</v>
       </c>
       <c r="B207" s="2">
@@ -2788,7 +2788,7 @@
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="5">
+      <c r="A208" s="3">
         <v>44575</v>
       </c>
       <c r="B208" s="2">
@@ -2799,7 +2799,7 @@
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="5">
+      <c r="A209" s="3">
         <v>44582</v>
       </c>
       <c r="B209" s="2">
@@ -2810,7 +2810,7 @@
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="5">
+      <c r="A210" s="3">
         <v>44589</v>
       </c>
       <c r="B210" s="2">
@@ -2821,7 +2821,7 @@
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="5">
+      <c r="A211" s="3">
         <v>44603</v>
       </c>
       <c r="B211" s="2">
@@ -2832,7 +2832,7 @@
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="5">
+      <c r="A212" s="3">
         <v>44610</v>
       </c>
       <c r="B212" s="2">
@@ -2843,7 +2843,7 @@
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="5">
+      <c r="A213" s="3">
         <v>44617</v>
       </c>
       <c r="B213" s="2">
@@ -2854,7 +2854,7 @@
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="5">
+      <c r="A214" s="3">
         <v>44624</v>
       </c>
       <c r="B214" s="2">
@@ -2865,7 +2865,7 @@
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="5">
+      <c r="A215" s="3">
         <v>44631</v>
       </c>
       <c r="B215" s="2">
@@ -2876,7 +2876,7 @@
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="5">
+      <c r="A216" s="3">
         <v>44638</v>
       </c>
       <c r="B216" s="2">
@@ -2887,7 +2887,7 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="5">
+      <c r="A217" s="3">
         <v>44645</v>
       </c>
       <c r="B217" s="2">
@@ -2898,7 +2898,7 @@
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="5">
+      <c r="A218" s="3">
         <v>44652</v>
       </c>
       <c r="B218" s="2">
@@ -2909,7 +2909,7 @@
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="5">
+      <c r="A219" s="3">
         <v>44659</v>
       </c>
       <c r="B219" s="2">
@@ -2920,7 +2920,7 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="5">
+      <c r="A220" s="3">
         <v>44666</v>
       </c>
       <c r="B220" s="2">
@@ -2931,7 +2931,7 @@
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="5">
+      <c r="A221" s="3">
         <v>44673</v>
       </c>
       <c r="B221" s="2">
@@ -2942,7 +2942,7 @@
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="5">
+      <c r="A222" s="3">
         <v>44680</v>
       </c>
       <c r="B222" s="2">
@@ -2953,7 +2953,7 @@
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="5">
+      <c r="A223" s="3">
         <v>44687</v>
       </c>
       <c r="B223" s="2">
@@ -2964,7 +2964,7 @@
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="5">
+      <c r="A224" s="3">
         <v>44694</v>
       </c>
       <c r="B224" s="2">
@@ -2975,7 +2975,7 @@
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="5">
+      <c r="A225" s="3">
         <v>44701</v>
       </c>
       <c r="B225" s="2">
@@ -2986,7 +2986,7 @@
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="5">
+      <c r="A226" s="3">
         <v>44708</v>
       </c>
       <c r="B226" s="2">
@@ -2997,7 +2997,7 @@
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="5">
+      <c r="A227" s="3">
         <v>44714</v>
       </c>
       <c r="B227" s="2">
@@ -3008,7 +3008,7 @@
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="5">
+      <c r="A228" s="3">
         <v>44722</v>
       </c>
       <c r="B228" s="2">
@@ -3019,7 +3019,7 @@
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="5">
+      <c r="A229" s="3">
         <v>44729</v>
       </c>
       <c r="B229" s="2">
@@ -3030,7 +3030,7 @@
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="5">
+      <c r="A230" s="3">
         <v>44736</v>
       </c>
       <c r="B230" s="2">
@@ -3041,7 +3041,7 @@
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="5">
+      <c r="A231" s="3">
         <v>44743</v>
       </c>
       <c r="B231" s="2">
@@ -3052,7 +3052,7 @@
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="5">
+      <c r="A232" s="3">
         <v>44750</v>
       </c>
       <c r="B232" s="2">
@@ -3063,7 +3063,7 @@
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="5">
+      <c r="A233" s="3">
         <v>44757</v>
       </c>
       <c r="B233" s="2">
@@ -3074,7 +3074,7 @@
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="5">
+      <c r="A234" s="3">
         <v>44764</v>
       </c>
       <c r="B234" s="2">
@@ -3085,7 +3085,7 @@
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="5">
+      <c r="A235" s="3">
         <v>44771</v>
       </c>
       <c r="B235" s="2">
@@ -3096,7 +3096,7 @@
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="5">
+      <c r="A236" s="3">
         <v>44778</v>
       </c>
       <c r="B236" s="2">
@@ -3107,7 +3107,7 @@
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="5">
+      <c r="A237" s="3">
         <v>44785</v>
       </c>
       <c r="B237" s="2">
@@ -3118,7 +3118,7 @@
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="5">
+      <c r="A238" s="3">
         <v>44792</v>
       </c>
       <c r="B238" s="2">
@@ -3129,7 +3129,7 @@
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="5">
+      <c r="A239" s="3">
         <v>44799</v>
       </c>
       <c r="B239" s="2">
@@ -3140,7 +3140,7 @@
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="5">
+      <c r="A240" s="3">
         <v>44806</v>
       </c>
       <c r="B240" s="2">
@@ -3151,7 +3151,7 @@
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="5">
+      <c r="A241" s="3">
         <v>44813</v>
       </c>
       <c r="B241" s="2">
@@ -3162,7 +3162,7 @@
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="5">
+      <c r="A242" s="3">
         <v>44820</v>
       </c>
       <c r="B242" s="2">
@@ -3173,7 +3173,7 @@
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="5">
+      <c r="A243" s="3">
         <v>44827</v>
       </c>
       <c r="B243" s="2">
@@ -3184,7 +3184,7 @@
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="5">
+      <c r="A244" s="3">
         <v>44834</v>
       </c>
       <c r="B244" s="2">
@@ -3195,7 +3195,7 @@
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="5">
+      <c r="A245" s="3">
         <v>44842</v>
       </c>
       <c r="B245" s="2">
@@ -3206,7 +3206,7 @@
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="5">
+      <c r="A246" s="3">
         <v>44848</v>
       </c>
       <c r="B246" s="2">
@@ -3217,7 +3217,7 @@
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="5">
+      <c r="A247" s="3">
         <v>44855</v>
       </c>
       <c r="B247" s="2">
@@ -3228,7 +3228,7 @@
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="5">
+      <c r="A248" s="3">
         <v>44862</v>
       </c>
       <c r="B248" s="2">
@@ -3239,7 +3239,7 @@
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="5">
+      <c r="A249" s="3">
         <v>44869</v>
       </c>
       <c r="B249" s="2">
@@ -3250,7 +3250,7 @@
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="5">
+      <c r="A250" s="3">
         <v>44876</v>
       </c>
       <c r="B250" s="2">
@@ -3261,7 +3261,7 @@
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" s="5">
+      <c r="A251" s="3">
         <v>44883</v>
       </c>
       <c r="B251" s="2">
@@ -3272,7 +3272,7 @@
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="5">
+      <c r="A252" s="3">
         <v>44890</v>
       </c>
       <c r="B252" s="2">
@@ -3283,7 +3283,7 @@
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="5">
+      <c r="A253" s="3">
         <v>44897</v>
       </c>
       <c r="B253" s="2">
@@ -3294,7 +3294,7 @@
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="5">
+      <c r="A254" s="3">
         <v>44904</v>
       </c>
       <c r="B254" s="2">
@@ -3305,7 +3305,7 @@
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="5">
+      <c r="A255" s="3">
         <v>44911</v>
       </c>
       <c r="B255" s="2">
@@ -3316,7 +3316,7 @@
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="5">
+      <c r="A256" s="3">
         <v>44918</v>
       </c>
       <c r="B256" s="2">
@@ -3327,7 +3327,7 @@
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" s="5">
+      <c r="A257" s="3">
         <v>44925</v>
       </c>
       <c r="B257" s="2">
@@ -3338,7 +3338,7 @@
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" s="5">
+      <c r="A258" s="3">
         <v>44932</v>
       </c>
       <c r="B258" s="2">
@@ -3349,7 +3349,7 @@
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="5">
+      <c r="A259" s="3">
         <v>44939</v>
       </c>
       <c r="B259" s="2">
@@ -3360,7 +3360,7 @@
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="5">
+      <c r="A260" s="3">
         <v>44946</v>
       </c>
       <c r="B260" s="2">
@@ -3371,7 +3371,7 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="5">
+      <c r="A261" s="3">
         <v>44953</v>
       </c>
       <c r="B261" s="2">
@@ -3382,7 +3382,7 @@
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" s="5">
+      <c r="A262" s="3">
         <v>44960</v>
       </c>
       <c r="B262" s="2">
@@ -3393,7 +3393,7 @@
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" s="5">
+      <c r="A263" s="3">
         <v>44967</v>
       </c>
       <c r="B263" s="2">
@@ -3404,7 +3404,7 @@
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="5">
+      <c r="A264" s="3">
         <v>44974</v>
       </c>
       <c r="B264" s="2">
@@ -3415,7 +3415,7 @@
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="5">
+      <c r="A265" s="3">
         <v>44981</v>
       </c>
       <c r="B265" s="2">
@@ -3426,7 +3426,7 @@
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="5">
+      <c r="A266" s="3">
         <v>44988</v>
       </c>
       <c r="B266" s="2">
@@ -3437,7 +3437,7 @@
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="5">
+      <c r="A267" s="3">
         <v>44995</v>
       </c>
       <c r="B267" s="2">
@@ -3448,7 +3448,7 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="5">
+      <c r="A268" s="3">
         <v>45002</v>
       </c>
       <c r="B268" s="2">
@@ -3459,7 +3459,7 @@
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="5">
+      <c r="A269" s="3">
         <v>45009</v>
       </c>
       <c r="B269" s="2">
@@ -3470,7 +3470,7 @@
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" s="5">
+      <c r="A270" s="3">
         <v>45016</v>
       </c>
       <c r="B270" s="2">
@@ -3481,7 +3481,7 @@
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271" s="5">
+      <c r="A271" s="3">
         <v>45023</v>
       </c>
       <c r="B271" s="2">
@@ -3492,7 +3492,7 @@
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" s="5">
+      <c r="A272" s="3">
         <v>45030</v>
       </c>
       <c r="B272" s="2">
@@ -3503,7 +3503,7 @@
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" s="5">
+      <c r="A273" s="3">
         <v>45037</v>
       </c>
       <c r="B273" s="2">
@@ -3514,7 +3514,7 @@
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274" s="5">
+      <c r="A274" s="3">
         <v>45044</v>
       </c>
       <c r="B274" s="2">
@@ -3525,7 +3525,7 @@
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275" s="5">
+      <c r="A275" s="3">
         <v>45051</v>
       </c>
       <c r="B275" s="2">
@@ -3536,7 +3536,7 @@
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" s="5">
+      <c r="A276" s="3">
         <v>45058</v>
       </c>
       <c r="B276" s="2">
@@ -3547,7 +3547,7 @@
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" s="5">
+      <c r="A277" s="3">
         <v>45065</v>
       </c>
       <c r="B277" s="2">
@@ -3558,7 +3558,7 @@
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" s="5">
+      <c r="A278" s="3">
         <v>45072</v>
       </c>
       <c r="B278" s="2">
@@ -3569,7 +3569,7 @@
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" s="5">
+      <c r="A279" s="3">
         <v>45079</v>
       </c>
       <c r="B279" s="2">
@@ -3580,7 +3580,7 @@
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" s="5">
+      <c r="A280" s="3">
         <v>45086</v>
       </c>
       <c r="B280" s="2">
@@ -3591,7 +3591,7 @@
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="5">
+      <c r="A281" s="3">
         <v>45093</v>
       </c>
       <c r="B281" s="2">
@@ -3602,7 +3602,7 @@
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="5">
+      <c r="A282" s="3">
         <v>45100</v>
       </c>
       <c r="B282" s="2">
@@ -3613,7 +3613,7 @@
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" s="5">
+      <c r="A283" s="3">
         <v>45107</v>
       </c>
       <c r="B283" s="2">
@@ -3624,7 +3624,7 @@
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" s="5">
+      <c r="A284" s="3">
         <v>45114</v>
       </c>
       <c r="B284" s="2">
@@ -3635,7 +3635,7 @@
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" s="5">
+      <c r="A285" s="3">
         <v>45121</v>
       </c>
       <c r="B285" s="2">
@@ -3646,7 +3646,7 @@
       </c>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286" s="5">
+      <c r="A286" s="3">
         <v>45128</v>
       </c>
       <c r="B286" s="2">
@@ -3657,7 +3657,7 @@
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" s="5">
+      <c r="A287" s="3">
         <v>45135</v>
       </c>
       <c r="B287" s="2">
@@ -3668,7 +3668,7 @@
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="5">
+      <c r="A288" s="3">
         <v>45142</v>
       </c>
       <c r="B288" s="2">
@@ -3679,7 +3679,7 @@
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" s="5">
+      <c r="A289" s="3">
         <v>45149</v>
       </c>
       <c r="B289" s="2">
@@ -3690,7 +3690,7 @@
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="5">
+      <c r="A290" s="3">
         <v>45156</v>
       </c>
       <c r="B290" s="2">
@@ -3701,7 +3701,7 @@
       </c>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291" s="5">
+      <c r="A291" s="3">
         <v>45163</v>
       </c>
       <c r="B291" s="2">
@@ -3712,7 +3712,7 @@
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" s="5">
+      <c r="A292" s="3">
         <v>45170</v>
       </c>
       <c r="B292" s="2">
@@ -3723,7 +3723,7 @@
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" s="5">
+      <c r="A293" s="3">
         <v>45177</v>
       </c>
       <c r="B293" s="2">
@@ -3734,7 +3734,7 @@
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" s="5">
+      <c r="A294" s="3">
         <v>45184</v>
       </c>
       <c r="B294" s="2">
@@ -3745,7 +3745,7 @@
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" s="5">
+      <c r="A295" s="3">
         <v>45191</v>
       </c>
       <c r="B295" s="2">
@@ -3756,7 +3756,7 @@
       </c>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" s="5">
+      <c r="A296" s="3">
         <v>45197</v>
       </c>
       <c r="B296" s="2">
@@ -3767,7 +3767,7 @@
       </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" s="5">
+      <c r="A297" s="3">
         <v>45206</v>
       </c>
       <c r="B297" s="2">
@@ -3778,7 +3778,7 @@
       </c>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298" s="5">
+      <c r="A298" s="3">
         <v>45212</v>
       </c>
       <c r="B298" s="2">
@@ -3789,7 +3789,7 @@
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" s="5">
+      <c r="A299" s="3">
         <v>45219</v>
       </c>
       <c r="B299" s="2">
@@ -3800,7 +3800,7 @@
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" s="5">
+      <c r="A300" s="3">
         <v>45226</v>
       </c>
       <c r="B300" s="2">
@@ -3811,7 +3811,7 @@
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" s="5">
+      <c r="A301" s="3">
         <v>45233</v>
       </c>
       <c r="B301" s="2">
@@ -3822,7 +3822,7 @@
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="5">
+      <c r="A302" s="3">
         <v>45240</v>
       </c>
       <c r="B302" s="2">
@@ -3830,6 +3830,50 @@
       </c>
       <c r="C302" s="2">
         <v>89.21</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="3">
+        <v>45247</v>
+      </c>
+      <c r="B303" s="2">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="C303" s="2">
+        <v>87.99</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="3">
+        <v>45254</v>
+      </c>
+      <c r="B304" s="2">
+        <v>80.14</v>
+      </c>
+      <c r="C304" s="2">
+        <v>87.94</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="3">
+        <v>45261</v>
+      </c>
+      <c r="B305" s="2">
+        <v>80.88</v>
+      </c>
+      <c r="C305" s="2">
+        <v>87.61</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="3">
+        <v>45268</v>
+      </c>
+      <c r="B306" s="2">
+        <v>78.73</v>
+      </c>
+      <c r="C306" s="2">
+        <v>85.73</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A944B34F-CBE5-400E-B2B8-E6091404DF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAC8B15-80F9-4B4E-ACDC-62E14DBEFFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2023-12-08</t>
+    <t>2018-03-02:2024-01-12</t>
   </si>
   <si>
-    <t>2023-12-08</t>
+    <t>2024-01-12</t>
   </si>
 </sst>
 </file>
@@ -209,9 +209,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -249,7 +249,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -355,7 +355,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -497,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,9 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C306"/>
+  <dimension ref="A1:C311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3876,6 +3878,61 @@
         <v>85.73</v>
       </c>
     </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="3">
+        <v>45275</v>
+      </c>
+      <c r="B307" s="2">
+        <v>78.290000000000006</v>
+      </c>
+      <c r="C307" s="2">
+        <v>84.81</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B308" s="2">
+        <v>77.69</v>
+      </c>
+      <c r="C308" s="2">
+        <v>84.73</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="3">
+        <v>45289</v>
+      </c>
+      <c r="B309" s="2">
+        <v>75.17</v>
+      </c>
+      <c r="C309" s="2">
+        <v>82.73</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="3">
+        <v>45296</v>
+      </c>
+      <c r="B310" s="2">
+        <v>75.650000000000006</v>
+      </c>
+      <c r="C310" s="2">
+        <v>81.569999999999993</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="3">
+        <v>45303</v>
+      </c>
+      <c r="B311" s="2">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="C311" s="2">
+        <v>82.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAC8B15-80F9-4B4E-ACDC-62E14DBEFFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8EDD4A-8347-483B-8D70-B37F211A1D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Blast Furnace Starting R" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-01-12</t>
+    <t>2018-03-02:2024-03-15</t>
   </si>
   <si>
-    <t>2024-01-12</t>
+    <t>2024-03-15</t>
   </si>
 </sst>
 </file>
@@ -505,9 +505,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C311"/>
+  <dimension ref="A1:C320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -3933,6 +3933,105 @@
         <v>82.58</v>
       </c>
     </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="3">
+        <v>45310</v>
+      </c>
+      <c r="B312" s="2">
+        <v>76.25</v>
+      </c>
+      <c r="C312" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="3">
+        <v>45317</v>
+      </c>
+      <c r="B313" s="2">
+        <v>76.84</v>
+      </c>
+      <c r="C313" s="2">
+        <v>83.52</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="3">
+        <v>45324</v>
+      </c>
+      <c r="B314" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="C314" s="2">
+        <v>83.59</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="3">
+        <v>45331</v>
+      </c>
+      <c r="B315" s="2">
+        <v>76.78</v>
+      </c>
+      <c r="C315" s="2">
+        <v>83.82</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="3">
+        <v>45338</v>
+      </c>
+      <c r="B316" s="2">
+        <v>76.349999999999994</v>
+      </c>
+      <c r="C316" s="2">
+        <v>83.99</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="3">
+        <v>45345</v>
+      </c>
+      <c r="B317" s="2">
+        <v>75.61</v>
+      </c>
+      <c r="C317" s="2">
+        <v>83.57</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="3">
+        <v>45352</v>
+      </c>
+      <c r="B318" s="2">
+        <v>75.17</v>
+      </c>
+      <c r="C318" s="2">
+        <v>83.32</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="3">
+        <v>45359</v>
+      </c>
+      <c r="B319" s="2">
+        <v>75.62</v>
+      </c>
+      <c r="C319" s="2">
+        <v>83.09</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="3">
+        <v>45366</v>
+      </c>
+      <c r="B320" s="2">
+        <v>76.17</v>
+      </c>
+      <c r="C320" s="2">
+        <v>82.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8EDD4A-8347-483B-8D70-B37F211A1D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0CCCFC-6FE2-4A37-BB27-97BEA8F3C262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Blast Furnace Starting R" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-03-15</t>
+    <t>2018-03-02:2024-04-12</t>
   </si>
   <si>
-    <t>2024-03-15</t>
+    <t>2024-04-12</t>
   </si>
 </sst>
 </file>
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C320"/>
+  <dimension ref="A1:C324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="E315" sqref="E315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4032,6 +4032,50 @@
         <v>82.56</v>
       </c>
     </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="3">
+        <v>45373</v>
+      </c>
+      <c r="B321" s="2">
+        <v>76.92</v>
+      </c>
+      <c r="C321" s="2">
+        <v>82.81</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="3">
+        <v>45380</v>
+      </c>
+      <c r="B322" s="2">
+        <v>76.58</v>
+      </c>
+      <c r="C322" s="2">
+        <v>82.74</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="3">
+        <v>45387</v>
+      </c>
+      <c r="B323" s="2">
+        <v>77.83</v>
+      </c>
+      <c r="C323" s="2">
+        <v>83.63</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="3">
+        <v>45394</v>
+      </c>
+      <c r="B324" s="2">
+        <v>78.430000000000007</v>
+      </c>
+      <c r="C324" s="2">
+        <v>84.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0CCCFC-6FE2-4A37-BB27-97BEA8F3C262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761CC8A5-D597-4424-AEDA-FBB25FECFAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Blast Furnace Starting R" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-04-12</t>
+    <t>2018-03-02:2024-05-10</t>
   </si>
   <si>
-    <t>2024-04-12</t>
+    <t>2024-05-10</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C324"/>
+  <dimension ref="A1:C328"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4076,6 +4076,50 @@
         <v>84.07</v>
       </c>
     </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="3">
+        <v>45401</v>
+      </c>
+      <c r="B325" s="2">
+        <v>78.88</v>
+      </c>
+      <c r="C325" s="2">
+        <v>84.61</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="3">
+        <v>45408</v>
+      </c>
+      <c r="B326" s="2">
+        <v>79.75</v>
+      </c>
+      <c r="C326" s="2">
+        <v>85.55</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="3">
+        <v>45412</v>
+      </c>
+      <c r="B327" s="2">
+        <v>80.62</v>
+      </c>
+      <c r="C327" s="2">
+        <v>86.26</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="3">
+        <v>45422</v>
+      </c>
+      <c r="B328" s="2">
+        <v>81.52</v>
+      </c>
+      <c r="C328" s="2">
+        <v>87.69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761CC8A5-D597-4424-AEDA-FBB25FECFAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D38049-5FF4-48E7-B675-D60411BA0FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-05-10</t>
+    <t>2018-03-02:2024-06-14</t>
   </si>
   <si>
-    <t>2024-05-10</t>
+    <t>2024-06-14</t>
   </si>
 </sst>
 </file>
@@ -505,9 +505,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C328"/>
+  <dimension ref="A1:C333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
     </sheetView>
   </sheetViews>
@@ -4120,6 +4120,61 @@
         <v>87.69</v>
       </c>
     </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="3">
+        <v>45429</v>
+      </c>
+      <c r="B329" s="2">
+        <v>81.52</v>
+      </c>
+      <c r="C329" s="2">
+        <v>88.59</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="3">
+        <v>45436</v>
+      </c>
+      <c r="B330" s="2">
+        <v>81.52</v>
+      </c>
+      <c r="C330" s="2">
+        <v>88.51</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B331" s="2">
+        <v>81.67</v>
+      </c>
+      <c r="C331" s="2">
+        <v>88.15</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="3">
+        <v>45450</v>
+      </c>
+      <c r="B332" s="2">
+        <v>81.48</v>
+      </c>
+      <c r="C332" s="2">
+        <v>88.12</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="3">
+        <v>45457</v>
+      </c>
+      <c r="B333" s="2">
+        <v>82.07</v>
+      </c>
+      <c r="C333" s="2">
+        <v>89.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D38049-5FF4-48E7-B675-D60411BA0FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E4D46B-78B7-439B-89B3-E7AF7C0A571A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="3630" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Blast Furnace Starting R" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-06-14</t>
+    <t>2018-03-02:2024-07-12</t>
   </si>
   <si>
-    <t>2024-06-14</t>
+    <t>2024-07-12</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C333"/>
+  <dimension ref="A1:C337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4175,6 +4175,50 @@
         <v>89.55</v>
       </c>
     </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="3">
+        <v>45464</v>
+      </c>
+      <c r="B334" s="2">
+        <v>82.83</v>
+      </c>
+      <c r="C334" s="2">
+        <v>89.78</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="3">
+        <v>45471</v>
+      </c>
+      <c r="B335" s="2">
+        <v>83.13</v>
+      </c>
+      <c r="C335" s="2">
+        <v>89.11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="3">
+        <v>45478</v>
+      </c>
+      <c r="B336" s="2">
+        <v>82.79</v>
+      </c>
+      <c r="C336" s="2">
+        <v>89.05</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="3">
+        <v>45485</v>
+      </c>
+      <c r="B337" s="2">
+        <v>82.48</v>
+      </c>
+      <c r="C337" s="2">
+        <v>88.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E4D46B-78B7-439B-89B3-E7AF7C0A571A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2127875F-8523-4357-85DB-D747907A321B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="3630" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Blast Furnace Starting R" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-07-12</t>
+    <t>2018-03-02:2024-08-09</t>
   </si>
   <si>
-    <t>2024-07-12</t>
+    <t>2024-08-09</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C337"/>
+  <dimension ref="A1:C341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4219,6 +4219,50 @@
         <v>88.68</v>
       </c>
     </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="3">
+        <v>45492</v>
+      </c>
+      <c r="B338" s="2">
+        <v>82.65</v>
+      </c>
+      <c r="C338" s="2">
+        <v>89.64</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="3">
+        <v>45499</v>
+      </c>
+      <c r="B339" s="2">
+        <v>82.31</v>
+      </c>
+      <c r="C339" s="2">
+        <v>89.59</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="3">
+        <v>45506</v>
+      </c>
+      <c r="B340" s="2">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="C340" s="2">
+        <v>88.85</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="3">
+        <v>45513</v>
+      </c>
+      <c r="B341" s="2">
+        <v>80.19</v>
+      </c>
+      <c r="C341" s="2">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2127875F-8523-4357-85DB-D747907A321B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5ADE7B-E7E2-4C02-A657-4552D6762B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-08-09</t>
+    <t>2018-03-02:2024-09-13</t>
   </si>
   <si>
-    <t>2024-08-09</t>
+    <t>2024-09-13</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C341"/>
+  <dimension ref="A1:C346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4263,6 +4263,61 @@
         <v>87</v>
       </c>
     </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="3">
+        <v>45520</v>
+      </c>
+      <c r="B342" s="2">
+        <v>78.819999999999993</v>
+      </c>
+      <c r="C342" s="2">
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="3">
+        <v>45527</v>
+      </c>
+      <c r="B343" s="2">
+        <v>77.45</v>
+      </c>
+      <c r="C343" s="2">
+        <v>84.28</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="3">
+        <v>45534</v>
+      </c>
+      <c r="B344" s="2">
+        <v>76.39</v>
+      </c>
+      <c r="C344" s="2">
+        <v>82.94</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="3">
+        <v>45541</v>
+      </c>
+      <c r="B345" s="2">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="C345" s="2">
+        <v>83.62</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="3">
+        <v>45548</v>
+      </c>
+      <c r="B346" s="2">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="C346" s="2">
+        <v>83.91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5ADE7B-E7E2-4C02-A657-4552D6762B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A75D1FB-CD8A-48BA-855F-9AB03E8EAEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Blast Furnace Starting R" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-09-13</t>
+    <t>2018-03-02:2024-10-04</t>
   </si>
   <si>
-    <t>2024-09-13</t>
+    <t>2024-10-08</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C346"/>
+  <dimension ref="A1:C349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4318,6 +4318,39 @@
         <v>83.91</v>
       </c>
     </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="3">
+        <v>45555</v>
+      </c>
+      <c r="B347" s="2">
+        <v>78.25</v>
+      </c>
+      <c r="C347" s="2">
+        <v>84.08</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="3">
+        <v>45562</v>
+      </c>
+      <c r="B348" s="2">
+        <v>78.25</v>
+      </c>
+      <c r="C348" s="2">
+        <v>84.47</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="3">
+        <v>45569</v>
+      </c>
+      <c r="B349" s="2">
+        <v>79.59</v>
+      </c>
+      <c r="C349" s="2">
+        <v>85.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A75D1FB-CD8A-48BA-855F-9AB03E8EAEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CD6FAF-FA5A-40F9-A5CF-1FFDB1421413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-10-04</t>
+    <t>2018-03-02:2024-10-11</t>
   </si>
   <si>
-    <t>2024-10-08</t>
+    <t>2024-10-11</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C349"/>
+  <dimension ref="A1:C350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4351,6 +4351,17 @@
         <v>85.63</v>
       </c>
     </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="3">
+        <v>45576</v>
+      </c>
+      <c r="B350" s="2">
+        <v>80.81</v>
+      </c>
+      <c r="C350" s="2">
+        <v>87.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CD6FAF-FA5A-40F9-A5CF-1FFDB1421413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB69DD0D-AA51-4E6E-ADBA-E9FA466AB385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,10 +162,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -518,9 +518,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB69DD0D-AA51-4E6E-ADBA-E9FA466AB385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3465040C-28D9-4BDE-9B1F-6B1C0F52CBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-10-11</t>
+    <t>2018-03-02:2024-10-18</t>
   </si>
   <si>
-    <t>2024-10-11</t>
+    <t>2024-10-18</t>
   </si>
 </sst>
 </file>
@@ -162,10 +162,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C350"/>
+  <dimension ref="A1:C351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -518,9 +518,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4360,6 +4360,17 @@
       </c>
       <c r="C350" s="2">
         <v>87.53</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B351" s="2">
+        <v>81.7</v>
+      </c>
+      <c r="C351" s="2">
+        <v>88.01</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CD6FAF-FA5A-40F9-A5CF-1FFDB1421413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78577800-B9B1-4C4A-A0B0-F661E2C19B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-10-11</t>
+    <t>2018-03-02:2024-10-18</t>
   </si>
   <si>
-    <t>2024-10-11</t>
+    <t>2024-10-18</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C350"/>
+  <dimension ref="A1:C351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4362,6 +4362,17 @@
         <v>87.53</v>
       </c>
     </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="3">
+        <v>45583</v>
+      </c>
+      <c r="B351" s="2">
+        <v>81.7</v>
+      </c>
+      <c r="C351" s="2">
+        <v>88.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78577800-B9B1-4C4A-A0B0-F661E2C19B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC9E1F2-6269-477A-8FB2-42E1B2522DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC9E1F2-6269-477A-8FB2-42E1B2522DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FE45BB-93C0-4796-9554-8EB650EC606A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,10 +162,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -518,9 +518,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FE45BB-93C0-4796-9554-8EB650EC606A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA166B2-E76C-4AC9-9ABA-E0BF887D4720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-10-18</t>
+    <t>2018-03-02:2024-10-25</t>
   </si>
   <si>
-    <t>2024-10-18</t>
+    <t>2024-10-25</t>
   </si>
 </sst>
 </file>
@@ -162,10 +162,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C351"/>
+  <dimension ref="A1:C352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -518,9 +518,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4371,6 +4371,17 @@
       </c>
       <c r="C351" s="2">
         <v>88.01</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="3">
+        <v>45590</v>
+      </c>
+      <c r="B352" s="2">
+        <v>82.16</v>
+      </c>
+      <c r="C352" s="2">
+        <v>88.51</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA166B2-E76C-4AC9-9ABA-E0BF887D4720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F4A6E4-07B9-454D-B113-495891C8629D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Blast Furnace Starting R" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-10-25</t>
+    <t>2018-03-02:2024-11-08</t>
   </si>
   <si>
-    <t>2024-10-25</t>
+    <t>2024-11-08</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C352"/>
+  <dimension ref="A1:C354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4384,6 +4384,28 @@
         <v>88.51</v>
       </c>
     </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="3">
+        <v>45597</v>
+      </c>
+      <c r="B353" s="2">
+        <v>82.46</v>
+      </c>
+      <c r="C353" s="2">
+        <v>88.38</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="3">
+        <v>45604</v>
+      </c>
+      <c r="B354" s="2">
+        <v>82.27</v>
+      </c>
+      <c r="C354" s="2">
+        <v>87.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F4A6E4-07B9-454D-B113-495891C8629D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16D6830-73C9-483D-BF2F-28250EBCBBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Blast Furnace Starting R" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-11-08</t>
+    <t>2018-03-02:2024-11-22</t>
   </si>
   <si>
-    <t>2024-11-08</t>
+    <t>2024-11-22</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C354"/>
+  <dimension ref="A1:C356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4406,6 +4406,28 @@
         <v>87.85</v>
       </c>
     </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="3">
+        <v>45611</v>
+      </c>
+      <c r="B355" s="2">
+        <v>82.06</v>
+      </c>
+      <c r="C355" s="2">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="3">
+        <v>45618</v>
+      </c>
+      <c r="B356" s="2">
+        <v>81.91</v>
+      </c>
+      <c r="C356" s="2">
+        <v>88.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16D6830-73C9-483D-BF2F-28250EBCBBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A72AA4-395A-45F2-A07B-DE3373022EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-11-22</t>
+    <t>2018-03-02:2024-11-29</t>
   </si>
   <si>
-    <t>2024-11-22</t>
+    <t>2024-11-29</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C356"/>
+  <dimension ref="A1:C357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4428,6 +4428,17 @@
         <v>88.51</v>
       </c>
     </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="3">
+        <v>45625</v>
+      </c>
+      <c r="B357" s="2">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="C357" s="2">
+        <v>87.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A72AA4-395A-45F2-A07B-DE3373022EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C64B4-AA52-4A87-8850-846A691332B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-11-29</t>
+    <t>2018-03-02:2024-12-06</t>
   </si>
   <si>
-    <t>2024-11-29</t>
+    <t>2024-12-06</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C357"/>
+  <dimension ref="A1:C358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4439,6 +4439,17 @@
         <v>87.78</v>
       </c>
     </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="3">
+        <v>45632</v>
+      </c>
+      <c r="B358" s="2">
+        <v>81.45</v>
+      </c>
+      <c r="C358" s="2">
+        <v>87.31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C64B4-AA52-4A87-8850-846A691332B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAA1CB6-F2DA-4E14-9A1B-65122E6231E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-12-06</t>
+    <t>2018-03-02:2024-12-13</t>
   </si>
   <si>
-    <t>2024-12-06</t>
+    <t>2024-12-13</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C358"/>
+  <dimension ref="A1:C359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4450,6 +4450,17 @@
         <v>87.31</v>
       </c>
     </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="3">
+        <v>45639</v>
+      </c>
+      <c r="B359" s="2">
+        <v>80.53</v>
+      </c>
+      <c r="C359" s="2">
+        <v>87.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAA1CB6-F2DA-4E14-9A1B-65122E6231E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFB4011-817F-4076-98F3-153A9B08DBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Blast Furnace Starting R" sheetId="1" r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFB4011-817F-4076-98F3-153A9B08DBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8203D073-AB5D-4B91-9A25-042C72D523AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Blast Furnace Starting R" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-12-13</t>
+    <t>2018-03-02:2024-12-20</t>
   </si>
   <si>
-    <t>2024-12-13</t>
+    <t>2024-12-20</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C359"/>
+  <dimension ref="A1:C360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4461,6 +4461,17 @@
         <v>87.26</v>
       </c>
     </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="3">
+        <v>45646</v>
+      </c>
+      <c r="B360" s="2">
+        <v>79.61</v>
+      </c>
+      <c r="C360" s="2">
+        <v>86.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8203D073-AB5D-4B91-9A25-042C72D523AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF938F6-DFAF-4179-A64E-F8A17D4964DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2024-12-20</t>
+    <t>2018-03-02:2025-01-03</t>
   </si>
   <si>
-    <t>2024-12-20</t>
+    <t>2025-01-03</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C360"/>
+  <dimension ref="A1:C362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4472,6 +4472,28 @@
         <v>86.11</v>
       </c>
     </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="3">
+        <v>45653</v>
+      </c>
+      <c r="B361" s="2">
+        <v>78.69</v>
+      </c>
+      <c r="C361" s="2">
+        <v>85.53</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="3">
+        <v>45660</v>
+      </c>
+      <c r="B362" s="2">
+        <v>78.08</v>
+      </c>
+      <c r="C362" s="2">
+        <v>84.53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF938F6-DFAF-4179-A64E-F8A17D4964DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12C52C1-CDCC-467C-8C5C-86DA73FD0DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2025-01-03</t>
+    <t>2018-03-02:2025-01-10</t>
   </si>
   <si>
-    <t>2025-01-03</t>
+    <t>2025-01-10</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C362"/>
+  <dimension ref="A1:C363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4494,6 +4494,17 @@
         <v>84.53</v>
       </c>
     </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B363" s="2">
+        <v>77.16</v>
+      </c>
+      <c r="C363" s="2">
+        <v>84.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12C52C1-CDCC-467C-8C5C-86DA73FD0DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970FD8DA-79C6-4FBD-8F1E-42E2CF4385D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Blast Furnace Starting R" sheetId="1" r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970FD8DA-79C6-4FBD-8F1E-42E2CF4385D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A774BB5C-14DF-49BE-B5F4-0465025CF291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ Blast Furnace Starting R" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2025-01-10</t>
+    <t>2018-03-02:2025-01-17</t>
   </si>
   <si>
-    <t>2025-01-10</t>
+    <t>2025-01-17</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C363"/>
+  <dimension ref="A1:C364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4505,6 +4505,17 @@
         <v>84.22</v>
       </c>
     </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="3">
+        <v>45674</v>
+      </c>
+      <c r="B364" s="2">
+        <v>77.16</v>
+      </c>
+      <c r="C364" s="2">
+        <v>84.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A774BB5C-14DF-49BE-B5F4-0465025CF291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E1D4EA-66C8-4878-9235-3910A2582234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2025-01-17</t>
+    <t>2018-03-02:2025-01-24</t>
   </si>
   <si>
-    <t>2025-01-17</t>
+    <t>2025-01-24</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C364"/>
+  <dimension ref="A1:C365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4516,6 +4516,17 @@
         <v>84.3</v>
       </c>
     </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="3">
+        <v>45681</v>
+      </c>
+      <c r="B365" s="2">
+        <v>78</v>
+      </c>
+      <c r="C365" s="2">
+        <v>84.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E1D4EA-66C8-4878-9235-3910A2582234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EE31FD-B7AB-4C03-9940-A9440DD91503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2025-01-24</t>
+    <t>2018-03-02:2025-02-07</t>
   </si>
   <si>
-    <t>2025-01-24</t>
+    <t>2025-02-07</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C365"/>
+  <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4527,6 +4527,17 @@
         <v>84.66</v>
       </c>
     </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="3">
+        <v>45695</v>
+      </c>
+      <c r="B366" s="2">
+        <v>78</v>
+      </c>
+      <c r="C366" s="2">
+        <v>85.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EE31FD-B7AB-4C03-9940-A9440DD91503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8E64E3-21DA-41CF-98F5-35C77A6077AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2025-02-07</t>
+    <t>2018-03-02:2025-02-14</t>
   </si>
   <si>
-    <t>2025-02-07</t>
+    <t>2025-02-14</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C366"/>
+  <dimension ref="A1:C367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4538,6 +4538,17 @@
         <v>85.78</v>
       </c>
     </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="3">
+        <v>45702</v>
+      </c>
+      <c r="B367" s="2">
+        <v>78</v>
+      </c>
+      <c r="C367" s="2">
+        <v>85.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8E64E3-21DA-41CF-98F5-35C77A6077AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56975FF3-7285-4C6D-B233-6FBA57D45E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2025-02-14</t>
+    <t>2018-03-02:2025-02-21</t>
   </si>
   <si>
-    <t>2025-02-14</t>
+    <t>2025-02-21</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C367"/>
+  <dimension ref="A1:C368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4549,6 +4549,17 @@
         <v>85.58</v>
       </c>
     </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="3">
+        <v>45709</v>
+      </c>
+      <c r="B368" s="2">
+        <v>77.66</v>
+      </c>
+      <c r="C368" s="2">
+        <v>85.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56975FF3-7285-4C6D-B233-6FBA57D45E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F96705-5132-4865-9870-2DE58D05606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2025-02-21</t>
+    <t>2018-03-02:2025-02-28</t>
   </si>
   <si>
-    <t>2025-02-21</t>
+    <t>2025-02-28</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C368"/>
+  <dimension ref="A1:C369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4560,6 +4560,17 @@
         <v>85.39</v>
       </c>
     </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="3">
+        <v>45716</v>
+      </c>
+      <c r="B369" s="2">
+        <v>78.31</v>
+      </c>
+      <c r="C369" s="2">
+        <v>85.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
+++ b/inst/extdata/China_ Blast Furnace Starting Rate (247)_ Nationwide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F96705-5132-4865-9870-2DE58D05606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B16C1A-3FA3-45E4-9B20-0F24E69EB850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,10 +101,10 @@
     <t>Wind</t>
   </si>
   <si>
-    <t>2018-03-02:2025-02-28</t>
+    <t>2018-03-02:2025-03-07</t>
   </si>
   <si>
-    <t>2025-02-28</t>
+    <t>2025-03-07</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C369"/>
+  <dimension ref="A1:C370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E315" sqref="E315"/>
@@ -4571,6 +4571,17 @@
         <v>85.6</v>
       </c>
     </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="3">
+        <v>45723</v>
+      </c>
+      <c r="B370" s="2">
+        <v>79.53</v>
+      </c>
+      <c r="C370" s="2">
+        <v>86.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
